--- a/finetuning/it_datasets/qa_dataset/qa_it_medenine_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_medenine_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,14 +668,62 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Costa located at 8FXP+CVG Cafe Costa, Medenine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Costa/data=!4m7!3m6!1s0x1254d62b06c186e3:0xe4f0676c5ff52610!8m2!3d33.3485585!4d10.4871915!16s%2Fg%2F11bzywm878!19sChIJ44bBBivWVBIRECb1X2xn8OQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Costa, located in Medenine (coordinates 33.3497059,10.4863079), offers a cozy ambiance and a 4.3 rating on Google. With 41 reviews, this cafe caters to coffee enthusiasts and is open from 6 AM to midnight every day.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated café with a wide selection of coffee options, making it a popular spot for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Hallway Coffee Shop for a caffeine fix and local ambiance.
+Mid-Morning: Visiting the Musee des coutumes et traditions de la ville de Medenine for a deep dive into the city's heritage.
+Midday: Trying local cuisine at Rachid &amp; Sophie, a family restaurant renowned for its anecdotes and authentic Tunisian flavors.
+Afternoon: Enjoying scenic views at Medenine Centre, a popular bus stop, offering a chance to observe local life and capture the city's essence.
+Evening: Experiencing cultural immersion at jm` lfrdws, a museum showcasing Medenine's cultural heritage, providing insights into the city's past.
+Night: Indulging in a relaxing sundae experience at TONTON Glace, a highly-rated sundae restaurant known for its wide variety of flavors and delectable offerings.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hallway Coffee Shop is a popular cafe located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway with the coordinates of (32.620135, -85.375224). It opens daily from 6:45 AM to 9:00 PM and has received a rating of 4.1 based on 32 customer reviews.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -776,12 +829,62 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great place to get some coffee, check out Hallway Coffee Shop located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway. This top-rated cafe is perfect for coffee lovers and offers a cozy atmosphere to relax and enjoy your drink. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:45-21:00. To get there, use these GPS coordinates: 32.620135, -85.375224. For more details, visit their website at https://www.cafehallway.com/.</t>
+          <t>**Hallway Coffee Shop** (32.620135, -85.375224), located in Hallway Coffee Shop, 8FVQ+RXV Medenine hallway, offers a cozy and welcoming atmosphere for coffee enthusiasts. Serving a wide selection of brews and pastries, the shop is a popular destination for locals and tourists alike. With its convenient location, friendly staff, and 4.1 rating based on 32 reviews, Hallway Coffee Shop is a go-to spot for a caffeine fix or a relaxing break in Medenine.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated cafe with a cozy atmosphere for coffee lovers, where can you go?</t>
+          <t>Day Plan:
+Morning: Visit the Musee des coutumes et traditions de la ville de Medenine to gain insight into the city's rich cultural history through fascinating exhibits.
+Mid-Morning: Explore the jm` lfrdws museum, immerse yourself in cultural heritage, and uncover historical treasures.
+Midday: Satisfy your taste buds with local cuisine at Rachid &amp; Sophie, renowned for its family-friendly ambiance and anecdotes that enhance the dining experience.
+Afternoon: Unwind and enjoy a rejuvenating spa treatment at Maison d'hotes La Cuesta Medenine, a charming hotel with a relaxing atmosphere.
+Evening: Take a refreshing stroll to TONTON Glace, indulge in their delectable sundaes, and relish the variety of flavors.
+Night: Experience the vibrant atmosphere at Cafe La Fiesta, a renowned teahouse with a 5-star rating, and savor the cozy ambiance while sipping a delightful tea.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palm, located at Medenine (33.3497059, 10.4863079), is a cozy cafe offering a variety of coffee and tea selections. Its convenient hours from 5 AM to 11 PM cater to early risers and late-night owls. With a 4.3-star rating based on 3 reviews, Cafe Palm is highly recommended among locals and visitors alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -887,12 +990,62 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated Cafe , check out mntzh lfSwl lrb`@, located at mntzh lfSwl lrb`@, C113, Medenine. This must-visit spot has a rating of 4.0 and is open from 07:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%B2%D9%87+%D8%A7%D9%84%D9%81%D8%B5%D9%88%D9%84+%D8%A7%D9%84%D8%A7%D8%B1%D8%A8%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1254d7c42c7c52cf:0xe14212f0db5b470!8m2!3d33.3369152!4d10.4703814!16s%2Fg%2F11c45p6755!19sChIJz1J8LMTXVBIRcLS1DS8hFA4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 646 887.</t>
+          <t>Located in Medenine, this café offers a cozy ambiance with a rating of 4.0 out of 5 based on 18 reviews. It is open daily from 7:00 AM to midnight and offers a phone number (+216 75 646 887) for further inquiries. Its exact coordinates are (33.3497059, 10.4863079), allowing for easy navigation.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated cafe with a 4.0 rating and convenient hours of operation from 7:00-00:00 in Medenine?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant and culturally rich Musee des coutumes et traditions de la ville de Medenine.
+Mid-Morning: Visit jm` lfrdws, a museum that offers an immersive cultural experience.
+Midday: Savor local cuisine at Rachid &amp; Sophie, a family restaurant with a great reputation.
+Afternoon: Take a guided tour of the Central Louage Station, a service station offering transportation services.
+Evening: Indulge in delicious sundae flavors at TONTON Glace, a highly rated sundae restaurant.
+Night: Experience the lively atmosphere and traditional dishes at Restaurant fruit de mer, a seafood restaurant.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Monarc Coffee, a 4.6-rated cafe in Medenine, Tunisia, offers a cozy ambiance for coffee enthusiasts. Located at 33.3497059, 10.4863079, the cafe serves its customers from 6 AM to midnight daily. With glowing reviews, Monarc Coffee is worth a visit for coffee lovers seeking a respite in the heart of Medenine.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -994,14 +1147,66 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out mntzh `Sm jm`@ located at 9GF7+6VG mntzh `Sm jm`@, Medenine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%B2%D9%87+%D8%B9%D8%B5%D8%A7%D9%85+%D8%AC%D9%85%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1255299316233767:0xa2c0a6f25edfc356!8m2!3d33.3730669!4d10.5147063!16s%2Fg%2F11hbqq340q!19sChIJZzcjFpMpVRIRVsPfXvKmwKI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"mntzh `Sm jm`@" is a popular cafe located in Medenine, Tunisia. It offers a variety of services, including:
+- Food and drinks
+- Wi-Fi
+- A comfortable atmosphere
+The cafe is located at the coordinates (33.3497059, 10.4863079) and is open from 7:00 AM to midnight every day.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated destination perfect for Cafe lovers, with glowing reviews and an array of Cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring Medenine Centre
+Mid-Morning: Trying local cuisine at KIFSET
+Midday: Visiting Musee des coutumes et traditions de la ville de Medenine
+Afternoon: Enjoying a refreshing sundae at TONTON Glace
+Evening: Taking a scenic walk through La Cuesta Medenine
+Night: Indulging in delicious crepes at The Creperie Nutella</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe ezzitouna is a cafe located in Rue de Medenine, Zarzis, Tunisia. It has a rating of 4.7 and is open from 6am to midnight. Caffe ezzitouna offers a variety of coffee drinks, pastries, and snacks. It is also a popular spot for locals to gather and socialize.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1312,62 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a cozy cafe experience, head to Cafe Bonkif located at 9G96+J7Q Cafe Bonkif, Medenine. This popular destination offers a relaxing ambiance for cafe enthusiasts. With a rating of 4.0, it's definitely worth checking out. Cafe Bonkif is open from 5 am to 10 pm daily. For more information, call them at 24 676 569.</t>
+          <t>Cafe Bonkif is a cafe located in Medenine, Tunisia. It is open from 5:00 AM to 10:00 PM and offers a variety of food and drink options. The cafe is known for its friendly staff and comfortable atmosphere. It is also a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.0) cafe with a cozy ambiance in Medenine?</t>
+          <t>Day Plan:
+Morning: Explore the rich cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Immerse in the local lore and historical insights at "jm` lfrdws."
+Midday: Try the regional cuisine at the highly-rated "Mek D'hel."
+Afternoon: Enjoy the scenic views and fresh air at "Medenine Centre."
+Evening: Pamper yourself with a relaxing spa experience at "Maison d'hotes La Cuesta Medenine."
+Night: Relish the delicious sundaes and flavors at "TONTON Glace."</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1469,62 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great cup of coffee, head to Monarc Coffee. This top-rated cafe is located at 9G29+FMP Monarc Coffee, P1, Medenine. With a rating of 4.6 out of 5, it's a must-visit spot for coffee lovers. Monarc Coffee is open from 6 AM to midnight every day. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Monarc Coffee is a popular cafe in Medenine, Tunisia. Open from 6am to midnight, this cafe serves a variety of food and drink options that are sure to satisfy any customer. Monarc Coffee is located at 9G29+FMP, P1, with coordinates (33.3497059, 10.4863079), and offers a cozy, relaxed atmosphere with friendly service.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated cafe renowned for its exceptional coffee offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Musée des coutumes et traditions de la ville de Medenine, an intriguing museum that showcases the city's rich history and traditions.
+Mid-Morning: Take a guided tour of the Medenine Centre, a bustling bus stop that offers insights into the city's transportation network.
+Midday: Savor the delectable flavors of local cuisine at Restaurant fruit de mer, a seafood haven beloved by both locals and visitors.
+Afternoon: Embark on a shopping spree at 82 Sandwich &amp; malfouf, renowned for its delectable sandwiches and malfouf.
+Evening: Experience the energetic vibes of Rachid &amp; Sophie, a family restaurant famous for its delicious food and engaging anecdotes.
+Night: Head to Pizzeria Bella Roma, a pizzeria celebrated for its diverse pizza options and cozy ambiance, for a satisfying dinner.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe ezzitouna is a cafe located in Rue de Medenine, Zarzis, Tunisia. It has a rating of 4.7 and is open from 6am to midnight. Caffe ezzitouna offers a variety of coffee drinks, pastries, and snacks. It is also a popular spot for locals to gather and socialize.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1321,16 +1626,62 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Salon de the TonTon located at 8FRQ+WJH Salon de the TonTon, Medenine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.4, it's a must-visit spot.
-To get there, use these GPS coordinates: 51.5759361, -0.1436267. 
-For more details, visit their website at https://www.google.com/maps/place/Salon+de+th%C3%A9+TonTon/data=!4m7!3m6!1s0x1254d7d2767072b9:0x49d22db7a8744096!8m2!3d33.3423145!4d10.4891118!16s%2Fg%2F11h666r53c!19sChIJuXJwdtLXVBIRlkB0qLct0kk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Salon de the TonTon is a cafe located in Salon de the TonTon, Medenine, with coordinates (51.5759361, -0.1436267). It has a rating of 4.4 based on 8 reviews. The cafe offers its services from 07:00 to 23:00 and is closed on no specific days.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated cafe with a wide variety of Cafe options and a 4.4-star rating?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the captivating exhibits at **Musée des coutumes et traditions de la ville de Medenine**. Immerse yourself in the rich cultural heritage and local lore of this fascinating city.
+Mid-Morning: Head to **Cafe Afrique** for a delightful coffee experience. Relax in the cozy ambiance of this popular cafe, savoring the aroma of freshly brewed coffee while connecting with locals and fellow travelers.
+Midday: Indulge in a delectable local meal at **Rachid &amp; Sophie**. Renowned for its charming anecdotes and authentic ambiance, this family restaurant offers a tantalizing culinary journey that will leave a lasting impression.
+Afternoon: Discover the historical significance of **jm` lfrdws**. This highly-rated museum offers an immersive cultural experience, showcasing the captivating traditions and history of Medenine.
+Evening: Take a leisurely stroll through the bustling streets of **82 Sandwich &amp; malfouf**. Savor the flavors of traditional Tunisian cuisine while exploring the vibrant local market atmosphere.
+Night: Conclude the day with a restful stay at **Maison d'hotes La Cuesta Medenine**. Unwind in the tranquil ambiance of this highly-rated residence, ensuring a rejuvenating end to your day in Medenine.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Afrique, a popular cafe in Medenine located at (33.3458652, 10.4912132), offers a relaxing ambiance with a 5-star rating. Open from 6:00 AM to 11:00 PM, it's a favorite spot for coffee lovers and locals alike, providing a cozy atmosphere for connecting and unwinding.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Castella is a highly-rated restaurant located in Castella, Tunisia, with a 4.8-star rating based on 5 reviews. The restaurant is known for its delicious food and excellent service. If you're looking for a great place to eat in medenine, Castella is definitely worth checking out.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1436,13 +1787,62 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated cafe, head to mqh shyf located at 8FWP+X38 mqh~ shyf, mSbH ljrbw`, shr` 
-This cafe offers a range of categories and is perfect for cafe lovers. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, so you can enjoy your favorite drink anytime. Get there using these GPS coordinates: 33.3497059, 10.4863079. For more details, visit owner's link.</t>
+          <t>mqh~ shyf is a Cafe located in medenine, Tunisia. It is open 24 hours a day and has a rating of 4.6 on Google Maps based on 7 reviews. It offers a featured image and has a main category of Cafe and a subcategory of Cafe.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated cafe, open 24/7, and offering a variety of categories?</t>
+          <t>Day Plan:
+Morning: Explore the historical and cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Dive into the city's traditions and history at "jm` lfrdws."
+Midday: Try local cuisine at Rachid &amp; Sophie, known for its unique anecdotes and warm ambiance.
+Afternoon: Indulge in shopping and explore the local market.
+Evening: Head to TONTON Glace for a delightful sundae experience.
+Night: Relax and unwind at mHT@ lnql lryfy, a taxi rank with a cozy and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Monarc Coffee, a 4.6-rated cafe in Medenine, Tunisia, offers a cozy ambiance for coffee enthusiasts. Located at 33.3497059, 10.4863079, the cafe serves its customers from 6 AM to midnight daily. With glowing reviews, Monarc Coffee is worth a visit for coffee lovers seeking a respite in the heart of Medenine.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1952,68 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe La Fiesta located at 9F3X+H79 Cafe La Fiesta, Rue Djerba, Medenine. This top-rated destination is perfect for Salon de the lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-02:00. To get there, use these GPS coordinates: 33.87576, 10.85745. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-la-fiesta-109853241729935/ or call them at 90 096 973.</t>
+          <t>Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated Salon de the destination called Cafe La Fiesta with excellent reviews and extended hours of operation?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Exploring:** Musée des coutumes et traditions de la ville de Medenine (learn about Medenine's cultural heritage)
+**Mid-Morning:**
+* **Trying local cuisine:** Le Soixante-Quinze Fricasse et Sandwich (sample delicious sandwiches)
+**Midday:**
+* **Visiting:** Maison d'hotes La Cuesta Medenine (enjoy local hospitality and amenities)
+**Afternoon:**
+* **Enjoying:** TONTON Glace (indulge in delectable sundaes)
+**Evening:**
+* **Participating:** Guided tour of jm` lfrdws (gain historical and cultural insights)
+**Night:**
+* **Relaxing:** Rachid &amp; Sophie (enjoy authentic ambiance and cuisine)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Medenine, this café offers a cozy ambiance with a rating of 4.0 out of 5 based on 18 reviews. It is open daily from 7:00 AM to midnight and offers a phone number (+216 75 646 887) for further inquiries. Its exact coordinates are (33.3497059, 10.4863079), allowing for easy navigation.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Located in Medenine, Macdoner is a highly-rated restaurant with an impressive 4.5-star rating out of 15 reviews. Its exact coordinates are (33.3497059, 10.4863079) and is conveniently situated at 8FRQ+WMV Macdoner. With a specialization in dining, Macdoner caters to food enthusiasts looking for a delectable culinary experience.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1659,12 +2115,70 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a delightful cafe, check out Cafe Ennassim located at 8FJP+W3X Cafe Ennassim, Medenine. This highly-rated destination is perfect for cafe lovers and offers a relaxing ambiance. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ennassim/data=!4m7!3m6!1s0x1254d63527e8358d:0x8565702f28e8d018!8m2!3d33.3323662!4d10.485223!16s%2Fg%2F11c75sscp1!19sChIJjTXoJzXWVBIRGNDoKC9wZYU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Ennassim is a 4-star rated cafe located in Medenine, Tunisia (33.3497059, 10.4863079). The cafe is open daily from 6:00 AM to 12:00 AM and is known for its great atmosphere and delicious coffee.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a relaxing ambiance in Medenine, featuring a 4.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Explore the cultural heritage and traditions at "Musee des coutumes et traditions de la ville de Medenine".
+- Visit the "jm` lfrdws" museum for a deeper dive into Medenine's history and culture.
+Mid-Morning:
+- Engage in outdoor activities like hiking or biking at a nearby park or outdoor location.
+Midday:
+- Try local cuisine at Mek D'hel, a highly-rated restaurant offering Medenine's authentic flavors.
+Afternoon:
+- Visit the "Rachid &amp; Sophie" family restaurant to experience their unique and memorable dining experience.
+Evening:
+- Enjoy scenic views at a local beach or hilltop spot.
+Night:
+- Relax with a sundae at TONTON Glace, renowned for its delicious sundaes and wide variety of flavors.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1766,12 +2280,69 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a cozy spot to grab a bite, head to Castello, located at 8FMR+GJR Castello, Medenine. This top-rated cafe is a haven for coffee lovers, offering a warm and inviting atmosphere. With a rating of 4.4 out of 5, it's a must-visit destination. Castello is open daily from 6:00 AM to 8:00 PM. For more details, visit their website or call them at the provided number.</t>
+          <t>Castello is a cozy and inviting cafe located in the heart of Medenine, Tunisia. With its convenient location at coordinates (33.3497059, 10.4863079), Castello is easily accessible to both locals and visitors alike.
+Open from 6:00 AM to 8:00 PM every day of the week, Castello offers a wide range of beverages and snacks to satisfy any craving. Whether you're looking for a morning coffee or an afternoon pick-me-up, Castello has something for you.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a cozy and highly-rated cafe in Medenine with a warm and inviting atmosphere?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic and cultural exhibits at the Musée des Coutumes et Traditions de la Ville de Medenine.
+**Mid-Morning:**
+* Visit jm` lfrdws for a more in-depth cultural experience.
+**Midday:**
+* Try local cuisine at Restaurant fruit de mer.
+**Afternoon:**
+* Take a guided tour of the Gare des Louages de Medenine to learn about the local transportation system.
+**Evening:**
+* Enjoy a relaxing sundae at TONTON Glace.
+**Night:**
+* Have dinner at Pizza Pino, known for its exceptional pizzas.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennassim is a 4-star rated cafe located in Medenine, Tunisia (33.3497059, 10.4863079). The cafe is open daily from 6:00 AM to 12:00 AM and is known for its great atmosphere and delicious coffee.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1873,14 +2444,63 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe d'Azur located at 8GV2+GVR Cafe d'Azur, P1. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.3431867, 10.5028133. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+d%27Azur/data=!4m7!3m6!1s0x1254d6239465c575:0x1bb72354eb74375b!8m2!3d33.3438539!4d10.502156!16s%2Fg%2F1hm24v3dl!19sChIJdcVllCPWVBIRWzd061Qjtxs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>What highly-rated trip destination known for its Cafe offerings can be found in Medenine with a rating of 4.8 and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring the "Musee des coutumes et traditions de la ville de Medenine" for a glimpse into the city's cultural heritage.
+Mid-Morning: Trying local cuisine at Dar Dhiafa Medenine, a family-friendly restaurant serving grilled dishes in a comfortable atmosphere.
+Midday: Visiting Rachid &amp; Sophie for a unique dining experience, where you can enjoy delicious food while listening to anecdotes shared by the owners.
+Afternoon: Enjoying the scenic views at "Le Soixante-Quinze Fricasse et Sandwich," a fast-food restaurant with a convenient location and tasty sandwiches.
+Evening: Relaxing with a refreshing sundae at TONTON Glace, renowned for its wide variety of flavors and convenient hours of operation.
+Night: Experiencing the lively atmosphere at Cafe La Fiesta, a highly-rated teahouse that offers a cozy ambiance and ample time for tea enthusiasts to visit.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In the heart of Medenine, mntzh lfSwl lrb`@ is a must-visit cafe. Located at (33.3497059, 10.4863079), it offers a cozy and welcoming atmosphere. With a rating of 4.0 based on 18 reviews, this cafe is known for its delicious coffee, friendly service, and great location.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1982,12 +2602,62 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe, check out Cafe Bruxelles located at 8FRQ+C5F Cafe Bruxelles, Medenine. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 33.348982266694, 10.485188599175. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bruxelles/data=!4m7!3m6!1s0x1254d752259dd737:0xc10ffff4321ff760!8m2!3d33.3410728!4d10.4879327!16s%2Fg%2F11fl0qqp95!19sChIJN9edJVLXVBIRYPcfMvT_D8E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Bruxelles is a 4.3-rated cafe located in Medenine, Tunisia at the coordinates (33.348982266694, 10.485188599175). It is open from 6:00 AM to 9:00 PM and specializes in cafe fare.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated cafe in Medenine that offers a variety of cafe options and is open from 6 AM to 9 PM?</t>
+          <t>Day Plan:
+Morning: Exploring the Musee des coutumes et traditions de la ville de Medenine for a glimpse into the city's heritage and traditions.
+Mid-Morning: Visiting jm` lfrdws for an immersive cultural experience and historical insights.
+Midday: Enjoying a satisfying dining experience at Rachid &amp; Sophie, known for its delectable dishes and unique anecdotes.
+Afternoon: Strolling through the Central Louage Station to observe the vibrant transportation hub.
+Evening: Indulging in mouthwatering pizzas at Pizza Pino, renowned for its exceptional flavors.
+Night: Relaxing at TONTON Glace, savoring their delicious sundaes with a wide variety of flavors.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Medenine, this café offers a cozy ambiance with a rating of 4.0 out of 5 based on 18 reviews. It is open daily from 7:00 AM to midnight and offers a phone number (+216 75 646 887) for further inquiries. Its exact coordinates are (33.3497059, 10.4863079), allowing for easy navigation.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2093,15 +2763,62 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated cafe, check out Cafe Kif located at 9F3H+MPM Cafe Kif, Unnamed Road, Medenine.
-Cafe Kif is a popular destination for cafe lovers, offering a range of options to choose from. 
-With a 4.3-star rating, it's a must-visit spot in Medenine. They're conveniently open 24 hours a day. 
-To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kif/data=!4m7!3m6!1s0x1255292386a0b901:0x9fd21a0229318373!8m2!3d33.3542123!4d10.4793015!16s%2Fg%2F11qzx9m8yn!19sChIJAbmghiMpVRIRc4MxKQIa0p8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 604 203.</t>
+          <t>Cafe Kif is a highly-rated cafe in Medenine, Tunisia, open 24/7. It offers a cozy environment with a menu that focuses on coffee and tea. Its convenient location and welcoming atmosphere make it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated cafe with extended hours and a 4.3-star rating?</t>
+          <t>Day Plan:
+Morning: Explore the rich cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Indulge in the local flavors at Restaurant El Ghomrassni for a delightful lunch.
+Midday: Visit the intriguing jm` lfrdws museum for a journey into Medenine's past.
+Afternoon: Take a leisurely stroll through Maison d'hotes La Cuesta Medenine's beautiful gardens while admiring its architectural charm.
+Evening: Enjoy a romantic dinner at Rachid &amp; Sophie, renowned for its exceptional cuisine and cozy ambiance.
+Night: Unwind with a delicious sundae at TONTON Glace, the perfect treat to end the day on a sweet note.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dr Dyf@ is a restaurant located in Medenine, Tunisia (33.3497059, 10.4863079), with a 4.0 rating.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2203,12 +2920,62 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated Cafe, check out Cafe Afrique at 8FWR+9M7 medinine. This popular destination offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 33.3458652, 10.4912132. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Afrique/data=!4m7!3m6!1s0x1254d62935583aeb:0x6615e4a5c3015826!8m2!3d33.3459158!4d10.4916846!16s%2Fg%2F11dxky25kf!19sChIJ6zpYNSnWVBIRJlgBw6XkFWY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Afrique, a popular cafe in Medenine located at (33.3458652, 10.4912132), offers a relaxing ambiance with a 5-star rating. Open from 6:00 AM to 11:00 PM, it's a favorite spot for coffee lovers and locals alike, providing a cozy atmosphere for connecting and unwinding.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe in Medenine with a 5.0 rating, open from 6 AM to 11 PM?</t>
+          <t>Day Plan:
+Morning: Exploring the Musee des coutumes et traditions de la ville de Medenine to delve into the rich cultural history of Medenine.
+Mid-Morning: Trying local cuisine at Mek D'hel, a highly-rated restaurant offering a great dining experience.
+Midday: Visiting jM` lfrdws, a museum offering an immersive cultural experience.
+Afternoon: Enjoying a crepe at The Creperie Nutella, a popular crepe restaurant known for its delicious crepes and friendly service.
+Evening: Experiencing a unique and memorable dining experience at Rachid &amp; Sophie, a family restaurant with a 4.9 rating.
+Night: Relaxing with a sundae at TONTON Glace, a renowned sundae restaurant known for its delicious sundaes.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Hallway Coffee Shop** (32.620135, -85.375224), located in Hallway Coffee Shop, 8FVQ+RXV Medenine hallway, offers a cozy and welcoming atmosphere for coffee enthusiasts. Serving a wide selection of brews and pastries, the shop is a popular destination for locals and tourists alike. With its convenient location, friendly staff, and 4.1 rating based on 32 reviews, Hallway Coffee Shop is a go-to spot for a caffeine fix or a relaxing break in Medenine.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2310,12 +3077,62 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in Medenine and craving a delightful cafe experience, head to Cafe Palm, located at 8FXV+59Q Cafe Palm, Medenine. This highly rated spot boasts a 4.3 rating and is perfect for cafe enthusiasts. With its extended weekday hours from 5:00 AM to 11:00 PM, you can satisfy your cafe cravings at your convenience. For further information, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Palm/data=!4m7!3m6!1s0x1254d628fba3fdbd:0x73366554a2f5f5a9!8m2!3d33.347959!4d10.4934953!16s%2Fg%2F11gg64x3s_!19sChIJvf2j-yjWVBIRqfX1olRlNnM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Palm, located at Medenine (33.3497059, 10.4863079), is a cozy cafe offering a variety of coffee and tea selections. Its convenient hours from 5 AM to 11 PM cater to early risers and late-night owls. With a 4.3-star rating based on 3 reviews, Cafe Palm is highly recommended among locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with extended weekday hours in Medenine, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the vibrant "Musee des coutumes et traditions de la ville de Medenine" to delve into the rich cultural heritage of Medenine.
+Mid-Morning: Experiencing the cultural immersion at jm` lfrdws, a museum that offers a glimpse into Medenine's historical and cultural insights.
+Midday: Trying local cuisine at Restaurant fruit de mer, known for its delectable seafood dishes that reflect the flavors of the region.
+Afternoon: Enjoying scenic views at Pizza Pino, a pizzeria renowned for its exceptional flavors and beautiful ambiance.
+Evening: Shopping at the bustling market in Medenine, where you can find an array of local handicrafts, souvenirs, and traditional products.
+Night: Relaxing with a refreshing sundae at the popular TONTON Glace, known for its delicious sundaes and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Afrique is a highly-rated cafe situated at 8FWR+9M7, Medenine, Tunisia. It operates from 06:00 to 23:00, with a rating of 5 out of 5 based on 3 reviews. The cafe features an inviting atmosphere and a diverse menu, making it a popular destination for locals and tourists alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2413,12 +3230,68 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe why not. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's located at 8FQC+FMP Cafe why not, C113, Medenine and open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+why+not/data=!4m7!3m6!1s0x1254d7e3342cdf57:0xfeda23bd4d15716!8m2!3d33.3387096!4d10.4717031!16s%2Fg%2F11txrnbj76!19sChIJV98sNOPXVBIRFlfR1Dui7Q8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated cafe in Medenine that is perfect for cafe lovers?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical and cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning:
+- Take a guided tour of "jm` lfrdws" to delve into the rich cultural history of Medenine.
+Midday:
+- Savor the flavors of local cuisine at "Restaurant fruit de mer," known for its delicious seafood dishes.
+Afternoon:
+- Relax and unwind at "TONTON Glace," enjoying their delectable sundaes and refreshing ambiance.
+Evening:
+- Engage in outdoor activities like hiking or biking at the scenic spots around Medenine.
+Night:
+- Experience cultural immersion at "mn`tzh lfSwl lrb`@," a must-visit cafe with a cozy atmosphere and local charm.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In the heart of Medenine, mntzh lfSwl lrb`@ is a must-visit cafe. Located at (33.3497059, 10.4863079), it offers a cozy and welcoming atmosphere. With a rating of 4.0 based on 18 reviews, this cafe is known for its delicious coffee, friendly service, and great location.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2524,12 +3397,63 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe experience, check out Cafe bravia located at 8FXV+QVX Cafe bravia, C108. This top-rated destination is a must-visit spot for Cafe lovers. With a perfect rating of 5.0, it's open daily from 06:00-22:00. To get there, you can use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>**Café Bravia:**
+Located in Medenine (33.3497059, 10.4863079), Café Bravia is a cozy spot to relax and enjoy a cup of coffee. Its convenient hours (6 AM - 10 PM) make it an ideal place for a morning pick-me-up or an evening treat. With a 5.0 rating and positive reviews, Café Bravia is highly recommended for coffee enthusiasts looking for a warm and inviting atmosphere.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe experience in Medenine with perfect ratings and convenient opening hours, located at 33.3497059, 10.4863079?</t>
+          <t>Day Plan:
+Morning: Explore Medenine by visiting the Musée des coutumes et traditions de la ville de Medenine to delve into the city's rich history and traditions.
+Mid-Morning: Visit the nearby jm` lfrdws museum for a further immersion into Medenine's cultural heritage.
+Midday: Indulge in local cuisine at Restaurant El Ghomrassni, known for its delicious fast food options.
+Afternoon: Take a guided tour of the Central Louage Station to learn about transportation services in Medenine.
+Evening: Enjoy scenic views of the city from Medenine Centre bus stop.
+Night: Experience a relaxing evening at TONTON Glace, savoring their renowned sundaes.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2623,12 +3547,64 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in Medenine, cafe le coin is a must-visit spot for Cafe lovers. Located at 8FWJ+3HG cafe le coin, C113, Medenine, it's rated 4.0 out of 5. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Café le coin is a cafe located at 8FWJ+3HG cafe le coin, C113, Medenine. Its main category is Cafe and it has a rating of 4.0.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Medenine that's known for its exceptional coffee?</t>
+          <t>Day Plan:
+Morning: Explore the Musée des coutumes et traditions de la ville de Medenine to delve into the rich cultural heritage of Medenine.
+Mid-Morning: Visit jm` lfrdws to gain historical and cultural insights into the region.
+Midday: Try local cuisine at Restaurant fruit de mer, known for its fresh seafood dishes.
+Afternoon: Enjoy a delightful crepe experience at The Creperie Nutella, savoring the delicious sweet and savory options.
+Evening: Engage in outdoor activities like hiking or biking in the scenic surroundings of Medenine.
+Night: Relax with a rejuvenating spa treatment at Maison d'hotes La Cuesta Medenine, ending the day with a peaceful and pampering experience.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant terrasse khairi is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is situated in a convenient location, just off the main road. It has a pleasant ambiance and the staff is friendly and attentive. The prices are reasonable and the food is delicious. Overall, Restaurant terrasse khairi is a great place to dine.
+33.3497059, 10.4863079
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2722,12 +3698,63 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out mqh~ lrwsy located at 8FP9+888 mqh~ lrwsy, C113, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1254d7a86aa80ce1:0x2f1b03efe077d00c!8m2!3d33.3352225!4d10.4677619!16s%2Fg%2F11txqh05j1!19sChIJ4QyoaqjXVBIRDNB34O8DGy8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>mqh~ lrwsy is a cafe located in Médénine, Tunisia. It's rated 5.0 out of 5 stars based on one review. The cafe's exact location is 8FP9+888.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated cafe destination in Medenine, known for its exceptional Cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Musee des coutumes et traditions de la ville de Medenine to immerse yourself in the rich heritage and traditions of Medenine.
+Mid-Morning: Visit Cafe La Fiesta, a highly-rated teahouse, and enjoy a relaxing tea experience in a cozy ambiance.
+Midday: Try local cuisine at Mowgli Burger, known for its delicious burgers and friendly atmosphere.
+Afternoon: Engage in outdoor activities at the Scenic Spot by the Gare des louages de Medenine for breathtaking views and a leisurely stroll.
+Evening: Enjoy dinner at Rachid &amp; Sophie, a family restaurant with a great reputation for its delicious food and anecdotes.
+Night: Relax with a refreshing sundae at TONTON Glace, renowned for its delectable flavors and wide variety of options.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Bravia:**
+Located in Medenine (33.3497059, 10.4863079), Café Bravia is a cozy spot to relax and enjoy a cup of coffee. Its convenient hours (6 AM - 10 PM) make it an ideal place for a morning pick-me-up or an evening treat. With a 5.0 rating and positive reviews, Café Bravia is highly recommended for coffee enthusiasts looking for a warm and inviting atmosphere.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2837,12 +3864,62 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Caffe ezzitouna located at G424+P9F Caffe ezzitouna, Rue de Medenine, Zarzis. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at https://lotfiboussorra.wordpress.com/ or call them at 98 518 062.</t>
+          <t>Caffe ezzitouna is a cafe located in Rue de Medenine, Zarzis, Tunisia. It has a rating of 4.7 and is open from 6am to midnight. Caffe ezzitouna offers a variety of coffee drinks, pastries, and snacks. It is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated cafe, perfect for those who love their coffee and enjoy top-notch destinations?</t>
+          <t>Day Plan:
+Morning: Explore the historic Musee des coutumes et traditions de la ville de Medenine.
+Mid-Morning: Visit the jm` lfrdws for an immersive cultural experience.
+Midday: Try local cuisine at Mowgli Burger, known for its delicious burgers and friendly atmosphere.
+Afternoon: Take a leisurely stroll through the Scenic Spot to enjoy the picturesque surroundings and capture breathtaking views.
+Evening: Enjoy a mouthwatering dinner at Rachid &amp; Sophie, renowned for its anecdotes and unique dining experience.
+Night: Relax with a sweet treat at TONTON Glace, famous for its delectable sundaes and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Hallway Coffee Shop** (32.620135, -85.375224), located in Hallway Coffee Shop, 8FVQ+RXV Medenine hallway, offers a cozy and welcoming atmosphere for coffee enthusiasts. Serving a wide selection of brews and pastries, the shop is a popular destination for locals and tourists alike. With its convenient location, friendly staff, and 4.1 rating based on 32 reviews, Hallway Coffee Shop is a go-to spot for a caffeine fix or a relaxing break in Medenine.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2948,15 +4025,62 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you find yourself in medenine and seeking a delightful culinary experience, venture to Les delices de safia, conveniently located at F3R8+HCM Hicham route medenine, Zarzis 4120. 
-This top-rated restaurant boasts a remarkable rating of 5.0, making it a must-visit destination for food enthusiasts. Les delices de safia specializes in mouthwatering dishes, catering to the discerning palates of diners. 
-Open 24 hours a day, you can indulge in their culinary creations at your convenience. For any inquiries or to make reservations, you can reach them at 97 100 484. 
-For further details, explore their featured image at https://lh5.googleusercontent.com/p/AF1QipN1_L4NpWR8JoGbzUVPQKaJmnTwKpv2rge2lEjP=w408-h544-k-no or visit their official website at https://www.google.com/maps/place/Les+delices+de+safia/data=!4m7!3m6!1s0x13aae90eef7a575f:0x60269bc26de9e247!8m2!3d33.4914677!4d11.0660418!16s%2Fg%2F11q84jw9sv!19sChIJX1d67w7pqhMRR-LpbcKbJmA?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Les Delices de Safia is a 5-star restaurant located at the foolowing address : F3R8+HCM Les delices de safia, Hicham route medenine, Zarzis 4120. Situated at the coordinates (33.8686268, 10.7832941), it is open 24/7 and offers a wide variety of dishes to satisfy all tastes. With a cozy and welcoming atmosphere, Les Delices de Safia is the perfect place to enjoy a delicious meal with friends or family.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated restaurant in Medenine that offers delectable dishes 24 hours a day, making it a must-visit culinary destination?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic "Musee des coutumes et traditions de la ville de Medenine" to immerse in the rich cultural heritage of the city.
+Mid-Morning: Trying local cuisine at "mntzh lfSwl lrb`@" for a cozy ambiance and delicious coffee.
+Midday: Indulging in a traditional meal at "Rachid &amp; Sophie," known for its anecdotes and warm hospitality.
+Afternoon: Visiting the "jm` lfrdws" museum for an immersive cultural experience and historical insights.
+Evening: Enjoying a refreshing sundae at "TONTON Glace" for sweet cravings and a delightful break.
+Night: Experiencing the lively ambiance at "Pizzeria La Mama Mednine" for authentic Italian cuisine and a memorable dining experience.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In the heart of Medenine, mntzh lfSwl lrb`@ is a must-visit cafe. Located at (33.3497059, 10.4863079), it offers a cozy and welcoming atmosphere. With a rating of 4.0 based on 18 reviews, this cafe is known for its delicious coffee, friendly service, and great location.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3058,12 +4182,62 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a place to stay, Maison d'hotes La Cuesta Medenine is a top-rated destination. It's located at ndeg 3 Rue Ibn Battouta, Medenine 4100 and offers a range of categories to choose from, including Residence hoteliere and Maison d'hotes. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://www.google.com/maps/place/Maison+d%27h%C3%B4tes+La+Cuesta+Medenine/data=!4m10!3m9!1s0x1254d7047e8e8adf:0x98b1da39f19f0492!5m2!4m1!1i2!8m2!3d33.3370058!4d10.4923823!16s%2Fg%2F11g4ds4fjs!19sChIJ34qOfgTXVBIRkgSf8TnasZg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 059 845.</t>
+          <t>Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Maison d'hotes La Cuesta Medenine located, offering a variety of accommodation options in Medenine?</t>
+          <t>Day Plan:
+Morning: Exploring Medenine's cultural heritage at "Musee des coutumes et traditions de la ville de Medenine"
+Mid-Morning: Trying local cuisine at Restaurant Chez Sadok
+Midday: Relaxing and enjoying scenic views at "Maison d'hotes La Cuesta Medenine"
+Afternoon: Engaging in outdoor activities like hiking or exploring nature at a nearby park
+Evening: Shopping for souvenirs and local goods at the Central Market
+Night: Experiencing cultural immersion at "jm` lfrdws"</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bruxelles is a 4.3-rated cafe located in Medenine, Tunisia at the coordinates (33.348982266694, 10.485188599175). It is open from 6:00 AM to 9:00 PM and specializes in cafe fare.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant Chez Sadok, located in Medenine, Tunisia (33.349706, 10.486308), offers a delightful dining experience with a 5-star rating. This restaurant specializes in Restaurant cuisines and is open from 10:00 AM to 00:00 AM, providing ample time to savor its culinary delights.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3165,12 +4339,72 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated Residence hoteliere, check out Maison d'hotes La Cuesta Medenine located at Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100. This popular destination offers a range of categories including Residence hoteliere and Maison d'hotes. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website or call them at 96 059 845.</t>
+          <t>Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Residence hoteliere (4.7 stars) in Medenine?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore "mntzh `Sm jm`@" for a local cafe experience with Wi-Fi and a comfortable atmosphere. 
+**Mid-Morning:** 
+* Visit "jm` lfrdws" for an immersive cultural immersion into Medenine's history.
+**Midday:** 
+* Try local cuisine at "Les Delices de Safia," a 5-star restaurant with a cozy atmosphere, offering a variety of dishes. 
+**Afternoon:** 
+* Take a guided tour of "Musee des coutumes et traditions de la ville de Medenine" to delve into the rich heritage of the city.  
+**Evening:** 
+* Enjoy scenic views at "Restaurant El Ghomrassni," a fast-food restaurant with 4.5 stars, while indulging in their delicious offerings. 
+**Night:** 
+* Relax with a sweet treat at "TONTON Glace," a renowned sundae restaurant with a wide variety of flavors to choose from. Experience the vibrant nightlife at Rachid &amp; Sophie, family restaurant with a 4.9 rating and known for its anecdotes.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"mntzh `Sm jm`@" is a popular cafe located in Medenine, Tunisia. It offers a variety of services, including:
+- Food and drinks
+- Wi-Fi
+- A comfortable atmosphere
+The cafe is located at the coordinates (33.3497059, 10.4863079) and is open from 7:00 AM to midnight every day.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Les Delices de Safia is a 5-star restaurant located at the foolowing address : F3R8+HCM Les delices de safia, Hicham route medenine, Zarzis 4120. Situated at the coordinates (33.8686268, 10.7832941), it is open 24/7 and offers a wide variety of dishes to satisfy all tastes. With a cozy and welcoming atmosphere, Les Delices de Safia is the perfect place to enjoy a delicious meal with friends or family.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3272,12 +4506,62 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated mT`m restaurant, check out Restaurant fruit de mer located at 8FVQ+7MQ Restaurant fruit de mer, Medenine. This must-visit spot offers a range of mT`m categories to choose from. With a rating of 4.0, it's open during these hours: 6S-1m, but closed on ljm`@. To get there, use these GPS coordinates: 33.5464595, -7.576255. For more details, visit their website at https://www.google.com/maps/place/Restaurant+fruit+de+mer/@33.3432084,10.4892486,17z/data=!3m1!4b1!4m6!3m5!1s0x1254d77d135da985:0x7a4b406ab9c24872!8m2!3d33.3432084!4d10.4892486!16s%2Fg%2F11f7khmq0d?authuser=0&amp;entry=ttu or call them at 53 348 364.</t>
+          <t>Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated mT`m restaurant with GPS coordinates of 33.5464595, -7.576255?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the "Musee des coutumes et traditions de la ville de Medenine" to immerse yourself in the rich heritage of Medenine.
+Mid-Morning: Visit the "jm` lfrdws" museum to delve deeper into the city's cultural and historical facets.
+Midday: Indulge in the local cuisine by trying the delicious seafood dishes at "Restaurant fruit de mer."
+Afternoon: Head to the Central Louage Station for a scenic bus trip to the outskirts of Medenine, allowing you to experience the surrounding landscapes.
+Evening: As the sun sets, enjoy a relaxing stroll through the heart of Medenine, admiring the traditional architecture and vibrant streets.
+Night: Conclude your day with a memorable dining experience at "Rachid &amp; Sophie," known for its anecdotes and authentic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In the heart of Medenine, mntzh lfSwl lrb`@ is a must-visit cafe. Located at (33.3497059, 10.4863079), it offers a cozy and welcoming atmosphere. With a rating of 4.0 based on 18 reviews, this cafe is known for its delicious coffee, friendly service, and great location.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3375,12 +4659,62 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Musee des coutumes et traditions de la ville de Medenine located at 8FWR+XJF Musee des coutumes et traditions de la ville de Medenine, Unnamed Road, Medenine. This top-rated destination is perfect for Musee d'histoire locale lovers and offers a range of Musee d'histoire locale to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+des+coutumes+et+traditions+de+la+ville+de+M%C3%A9denine/data=!4m7!3m6!1s0x1254d729937e998b:0xb2580a1e22580e4f!8m2!3d33.3474331!4d10.4915598!16s%2Fg%2F11f3n381b9!19sChIJi5l-kynXVBIRTw5YIh4KWLI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for history buffs in Medenine, with a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage at **"Musee des coutumes et traditions de la ville de Medenine."**
+Mid-Morning: Try local cuisine with excellent ratings at **"Restaurant Chez Sadok."**
+Midday: Visit the **"Medenine Centre"** bus stop for easy transportation.
+Afternoon: Enjoy a delicious crepe at **"The Creperie Nutella."**
+Evening: Relax and enjoy the ambiance at **"Cafe La Fiesta."**
+Night: Experience the authentic local culture at **"jm` lfrdws."**</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe ezzitouna is a cafe located in Rue de Medenine, Zarzis, Tunisia. It has a rating of 4.7 and is open from 6am to midnight. Caffe ezzitouna offers a variety of coffee drinks, pastries, and snacks. It is also a popular spot for locals to gather and socialize.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant Chez Sadok, located in Medenine, Tunisia (33.349706, 10.486308), offers a delightful dining experience with a 5-star rating. This restaurant specializes in Restaurant cuisines and is open from 10:00 AM to 00:00 AM, providing ample time to savor its culinary delights.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3466,12 +4800,63 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out jm` lfrdws located at 8GJ4+4HV jm` lfrdws, Medenine. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AC%D8%A7%D9%85%D8%B9+%D8%A7%D9%84%D9%81%D8%B1%D8%AF%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x1254d7ed63af82ed:0xa4025a2540174398!8m2!3d33.3303683!4d10.5064119!16s%2Fg%2F11ssfxmhbb!19sChIJ7YKvY-3XVBIRmEMXQCVaAqQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>If I'm in Medenine and craving some art and culture, what top-rated spot should I visit for a captivating Musee experience?</t>
+          <t>Day Plan:
+Morning: Begin the day by exploring the Musee des coutumes et traditions de la ville de Medenine to delve into the rich local history and heritage of the city.
+Mid-Morning: Immerse yourself in the captivating atmosphere of Cafe La Fiesta, enjoying a relaxing tea experience with a local twist.
+Midday: Savor the authentic flavors of traditional Tunisian cuisine at Restaurant fruit de mer, renowned for its delectable seafood dishes.
+Afternoon: Embark on a tranquil walk through the scenic Gardens of Medenine, relishing the vibrant beauty of the blooming flora.
+Evening: Indulge in a rejuvenating spa experience at Maison d'hotes La Cuesta Medenine, where you can unwind and pamper yourself with luxurious treatments.
+Night: Culminate the day with a delightful culinary adventure at Rachid &amp; Sophie, a charming family restaurant known for its authentic local cuisine and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Castello is a cozy and inviting cafe located in the heart of Medenine, Tunisia. With its convenient location at coordinates (33.3497059, 10.4863079), Castello is easily accessible to both locals and visitors alike.
+Open from 6:00 AM to 8:00 PM every day of the week, Castello offers a wide range of beverages and snacks to satisfy any craving. Whether you're looking for a morning coffee or an afternoon pick-me-up, Castello has something for you.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3577,12 +4962,62 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, check out Dar Dhiafa Medenine located at 8GXF+MPQ Dar Dhiafa Medenine, Medenine. This destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Dar+Dhiafa+Medenine/data=!4m7!3m6!1s0x125529fe05e6a259:0x4affd5da440fb34c!8m2!3d33.349218!4d10.5243652!16s%2Fg%2F11cs6kt9yf!19sChIJWaLmBf4pVRIRTLMPRNrV_0o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 680 673.</t>
+          <t>Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated restaurant with a wide range of dining options, offering a delightful dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the enchanting "Musee des coutumes et traditions de la ville de Medenine" (Museum of Customs and Traditions), where you can delve into the city's rich cultural heritage.
+Mid-Morning: Immerse yourself in the local culinary scene by trying out the delicious dishes at "Restaurant fruit de mer," a seafood haven.
+Midday: Engage in outdoor activities and enjoy scenic views at "TONTON Glace," a renowned sundae restaurant known for its delectable treats.
+Afternoon: Visit the "jm` lfrdws" museum, offering an immersive cultural experience and historical insights.
+Evening: Indulge in a culinary adventure at "Rachid &amp; Sophie," a family restaurant with high ratings and a cozy ambiance.
+Night: Relax and rejuvenate at the "Maison d'hotes La Cuesta Medenine," a charming hotel known for its tranquility and warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3692,12 +5127,62 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great place to eat, check out cheesy located at 9G29+6RR cheesy, P1, Medenine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Pizzeria to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link or call them at 98 157 475.</t>
+          <t>Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant and Pizzeria with a 4.1 rating in Medenine, known for its cheesy offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historic Musee des coutumes et traditions de la ville de Medenine, immersing yourself in the rich heritage and traditions of the city.
+Mid-Morning: Head to jm` lfrdws, a museum dedicated to local history and culture, where you can delve into the city's past and gain a deeper understanding of its people.
+Midday: Indulge in a delectable lunch at Rachid &amp; Sophie, a family restaurant known for its delicious food and heartwarming anecdotes, ensuring a memorable dining experience.
+Afternoon: Visit the Gare des louages de Medenine, the main bus station in the city, and experience the hustle and bustle of local transportation. Take time to observe the daily lives of locals and capture the vibrant street scenes.
+Evening: Make your way to TONTON Glace, a renowned sundae restaurant, and treat yourself to a refreshing and indulgent sundae. With a wide variety of flavors to choose from, you can satisfy your sweet cravings and cool down on a hot afternoon.
+Night: Explore the vibrant Maison d'hotes La Cuesta Medenine, a hotel known for its excellent service and comfortable accommodations. Take advantage of the hotel's amenities, such as the pool, to relax and unwind after a full day of sightseeing.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ shyf is a Cafe located in medenine, Tunisia. It is open 24 hours a day and has a rating of 4.6 on Google Maps based on 7 reviews. It offers a featured image and has a main category of Cafe and a subcategory of Cafe.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3803,14 +5288,62 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Hallway Coffee Shop located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:45-21:00. To get there, use these GPS coordinates: 32.620135, -85.375224. For more details, visit their website at https://www.cafehallway.com/</t>
+          <t>Hallway Coffee Shop is a popular cafe located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway with the coordinates of (32.620135, -85.375224). It opens daily from 6:45 AM to 9:00 PM and has received a rating of 4.1 based on 32 customer reviews.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Question: Where in Medenine can you satisfy your cravings for Cafe at a highly-rated destination with a cozy ambiance?</t>
+          <t>Day Plan:
+Morning: Explore Musee des coutumes et traditions de la ville de Medenine, a museum showcasing Medenine's cultural history.
+Mid-Morning: Visit jm` lfrdws, a museum offering historical and cultural insights.
+Midday: Try local cuisine at Restaurant fruit de mer, renowned for its seafood dishes.
+Afternoon: Engage in outdoor activities like swimming or sunbathing at a nearby beach.
+Evening: Enjoy scenic views at TONTON Glace, a renowned sundae restaurant with a cozy and welcoming atmosphere.
+Night: Participate in a cultural immersion at Maison d'hotes La Cuesta Medenine, a hotel known for its traditional Tunisian ambiance and activities.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Hallway Coffee Shop** (32.620135, -85.375224), located in Hallway Coffee Shop, 8FVQ+RXV Medenine hallway, offers a cozy and welcoming atmosphere for coffee enthusiasts. Serving a wide selection of brews and pastries, the shop is a popular destination for locals and tourists alike. With its convenient location, friendly staff, and 4.1 rating based on 32 reviews, Hallway Coffee Shop is a go-to spot for a caffeine fix or a relaxing break in Medenine.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3916,16 +5449,62 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Rachid &amp; Sophie located at 9H52+PM5. 
-This top-rated destination is perfect for Restaurant familial lovers and offers a range of Restaurant familial to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on monday. 
-To get there, use these GPS coordinates: 18.7912352, -11.6868658. 
-For more details, visit their website at https://www.google.com/maps/place/Rachid+%26+Sophie/data=!4m7!3m6!1s0x12552b4be49d8c39:0x5b314fe0cbd6a127!8m2!3d33.3592737!4d10.551729!16s%2Fg%2F11lkgn0myk!19sChIJOYyd5EsrVRIRJ6HWy-BPMVs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 946 915.</t>
+          <t>Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>What is the name and exact location of a popular Restaurant familial destination with a 4.9 rating, located in Medenine?</t>
+          <t>Day Plan:
+Morning: Explore the rich history and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Immerse yourself in the city's cultural heritage through captivating exhibits and collections.
+Mid-Morning: Indulge in the delectable culinary delights of Medenine at Brik Amy ALI, a renowned restaurant known for its diverse menu and inviting ambiance. Savor the flavors of traditional Tunisian dishes in a cozy and authentic setting.
+Midday: Visit the Central Louage Station, a service station that serves as a central hub for transportation in Medenine. Observe the bustling atmosphere and interact with locals as they go about their daily commutes.
+Afternoon: Enjoy a relaxing afternoon at Medenine Centre, a popular bus stop that offers a glimpse into the daily life of the city. Engage with locals, soak up the vibrant atmosphere, and perhaps strike up conversations.
+Evening: Experience a cultural immersion at jm` lfrdws, a museum in Medenine that offers a unique perspective on the city's history and traditions. Explore exhibits showcasing local artifacts, art, and stories.
+Night: Indulge in the sweet and savory crepes at The Creperie Nutella, a local favorite known for its high-quality ingredients and friendly service. Choose from a variety of classic and innovative crepe options while enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Brik Amy ALI is a renowned restaurant located in Medenine, Tunisia, at the coordinates (33.3497059, 10.4863079). It specializes in offering a delectable dining experience, with a diverse menu catering to various tastes. The restaurant opens its doors at 11:00 and continues to serve until 00:00, providing ample time for customers to savor its culinary delights. Its prime location makes it easily accessible, inviting food enthusiasts to indulge in its delectable cuisine.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4031,14 +5610,68 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a Restaurant, check out Dar el Hout - dr lHwt located at 8FMP+7XP Dar el Hout - dr lHwt, Medenine 4100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://www.facebook.com/pg/Dar-el-Hout-%25D8%25AF%25D8%25A7%25D8%25B1-%25D8%25A7%25D9%2584%25D8%25AD%25D9%2588%25D8%25AA-109172293953428/ or call them at 52 588 298.</t>
+          <t>Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated Restaurant called Dar el Hout - dr lHwt with specific GPS coordinates and a popular online presence?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming streets of Medenine, discovering hidden gems and local life.
+**Mid-Morning:**
+- Visit the Musée des coutumes et traditions de la ville de Medenine to immerse yourself in the rich heritage and traditions of the city.
+**Midday:**
+- Try local cuisine at Restaurant fruit de mer, known for its fresh seafood dishes.
+**Afternoon:**
+- Take a refreshing break at TONTON Glace, indulging in their delightful sundaes and icy treats.
+**Evening:**
+- Enjoy a cultural experience at jm` lfrdws museum, showcasing the city's historical and cultural heritage.
+**Night:**
+- Immerse in the lively ambiance of Cafe La Fiesta, savoring traditional tea and relishing the friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4144,12 +5777,68 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out mntzh lfSwl lrb`@ located at mntzh lfSwl lrb`@, C113, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at  or call them at 75 646 887.</t>
+          <t>In the heart of Medenine, mntzh lfSwl lrb`@ is a must-visit cafe. Located at (33.3497059, 10.4863079), it offers a cozy and welcoming atmosphere. With a rating of 4.0 based on 18 reviews, this cafe is known for its delicious coffee, friendly service, and great location.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Medenine that caters to Cafe lovers, offering a range of Cafe options, and boasts a 4.0 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the rich cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+**Mid-Morning:**
+- Try local cuisine at Restaurant fruit de mer, known for its fresh and delicious seafood.
+**Midday:**
+- Visit the "jm` lfrdws" museum for an immersive cultural experience and historical insights.
+**Afternoon:**
+- Relax with a tasty sundae at TONTON Glace, a popular spot among locals and tourists.
+**Evening:**
+- Indulge in authentic Tunisian dishes at Rachid &amp; Sophie, a highly-rated family restaurant with a welcoming atmosphere.
+**Night:**
+- Head to the The Creperie Nutella for a sweet treat and enjoy their delicious crepes in a cozy setting.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hallway Coffee Shop is a popular cafe located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway with the coordinates of (32.620135, -85.375224). It opens daily from 6:45 AM to 9:00 PM and has received a rating of 4.1 based on 32 customer reviews.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Castella is a highly-rated restaurant located in Castella, Tunisia, with a 4.8-star rating based on 5 reviews. The restaurant is known for its delicious food and excellent service. If you're looking for a great place to eat in medenine, Castella is definitely worth checking out.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4251,15 +5940,63 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Macdoner located at 8FRQ+WMV Macdoner. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.3497059, 10.4863079. 
-For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipMXsTLjJAbiWnZVobpdTN6LFo-QTe-ihz-FEi6g=w408-h299-k-no or call them at 50 075 617.</t>
+          <t>Located in Medenine, Macdoner is a highly-rated restaurant with an impressive 4.5-star rating out of 15 reviews. Its exact coordinates are (33.3497059, 10.4863079) and is conveniently situated at 8FRQ+WMV Macdoner. With a specialization in dining, Macdoner caters to food enthusiasts looking for a delectable culinary experience.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant destination in Medenine, known for its exceptional quality and conveniently located at 8FRQ+WMV Macdoner, with GPS coordinates of 33.3497059, 10.4863079?</t>
+          <t>Day Plan:
+Morning: Explore the Musee des coutumes et traditions de la ville de Medenine to delve into the rich heritage and traditions of Medenine.
+Mid-Morning: Visit Rachid &amp; Sophie, a family restaurant known for its delicious local cuisine and unique anecdotes, enjoying a satisfying meal and cultural immersion.
+Midday: Take a guided tour of Castello, a cozy and inviting cafe, to learn about the history and significance of this iconic landmark while indulging in a refreshing beverage or snack.
+Afternoon: Head to Cafe La Fiesta, a highly-rated teahouse, for a relaxing tea experience and respite from the day's activities, savoring the aromatic flavors and cozy ambiance.
+Evening: Explore the streets of Medenine, discovering hidden gems and shopping for local handicrafts and souvenirs at the bustling market.
+Night: Experience authentic flavors at Restaurant fruit de mer, delighting in fresh seafood dishes while immersing yourself in the lively local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Castello is a cozy and inviting cafe located in the heart of Medenine, Tunisia. With its convenient location at coordinates (33.3497059, 10.4863079), Castello is easily accessible to both locals and visitors alike.
+Open from 6:00 AM to 8:00 PM every day of the week, Castello offers a wide range of beverages and snacks to satisfy any craving. Whether you're looking for a morning coffee or an afternoon pick-me-up, Castello has something for you.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4365,12 +6102,62 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Restaurant ralliement located at 8FXV+VW4 Restaurant ralliement, Medenine 4100. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://www.facebook.com/Restaurant-Caf%25C3%25A9-ralliement-101080675532473.</t>
+          <t>Restaurant Ralliement is a restaurant located in Medenine, Tunisia. It has a 4.0 rating on Google, with 14 reviews. It offers a variety of dishes, and is open from 07:00-22:00. The restaurant's coordinates are (33.2333991, 10.4543042).</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Question: Where in Medenine can you enjoy a highly-rated dining experience at Restaurant ralliement, a top destination for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the rich heritage at Musée des coutumes et traditions de la ville de Medenine
+Mid-Morning: Shopping for souvenirs and local products at 82 Sandwich &amp; malfouf
+Midday: Trying local cuisine at Rachid &amp; Sophie, known for its delicious food and anecdotes
+Afternoon: Enjoyingscenic views at TONTON Glace while indulging in their renowned sundaes
+Evening: Participating in a guided tour of jm` lfrdws, a museum offering a captivating cultural experience
+Night: Taking a relaxing break at Maison d'hôtes La Cuesta Medenine, a hotel with a cozy ambiance</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4476,12 +6263,62 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great spot to grab some tasty food, consider Le Soixante-Quinze Fricasse et Sandwich, located at 8FVQ+4XW Medenine. This top-rated fast food joint has a 4.0 rating and offers a range of delicious options to choose from. It's open daily from 09:00-22:00, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Le+Soixante-Quinze+Fricass%C3%A9+et+Sandwich/data=!4m7!3m6!1s0x1254d79ea3a74e51:0x5749d502bec0afd2!8m2!3d33.3428604!4d10.4899599!16s%2Fg%2F11j4wvzh0h!19sChIJUU6no57XVBIR0q_AvgLVSVc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 780 041.</t>
+          <t>位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated fast food spot open from morning till night, offering a range of delicious options?</t>
+          <t>Day Plan:
+Morning: Explore the "Musee des coutumes et traditions de la ville de Medenine" for a glimpse into Medenine's rich cultural heritage.
+Mid-Morning: Visit the jm` lfrdws museum to delve deeper into the city's history and traditions.
+Midday: Try local cuisine at Restaurant fruit de mer, known for its fresh and flavorful seafood dishes.
+Afternoon: Enjoy an afternoon tea experience at the highly-rated Cafe La Fiesta, known for its cozy ambiance and friendly atmosphere.
+Evening: Experience the lively cultural atmosphere at the Rachid &amp; Sophie family restaurant, where you can enjoy anecdotes that enhance the dining experience.
+Night: Indulge in delectable pizzas at Pizza Pino, a highly recommended pizzeria with exceptional flavors and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4587,12 +6424,63 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Creperie Nutella located at 8FVQ+7Q5 Creperie Nutella. This top-rated destination is perfect for Creperie lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.facebook.com/creperienutella.officiel/ or call them at 24 404 005.</t>
+          <t>The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where in Medenine can you indulge in highly-rated Creperie delights at a top-rated destination with a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Musee des coutumes et traditions de la ville de Medenine for a glimpse into the city's rich heritage.
+Mid-Morning: Enjoy a refreshing tea experience at Cafe La Fiesta, known for its cozy ambiance and highly-rated tea offerings.
+Midday: Indulge in traditional Tunisian cuisine at Restaurant terrasse khairi.
+Afternoon: Engage in outdoor activities at Medenine Centre, a popular bus stop offering affordable city transportation.
+Evening: Try local cuisine at Rachid &amp; Sophie, a family restaurant with a great reputation for both food and anecdotes.
+Night: Visit TONTON Glace for delectable sundaes and a sweet treat to end the day on a high note.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe ezzitouna is a cafe located in Rue de Medenine, Zarzis, Tunisia. It has a rating of 4.7 and is open from 6am to midnight. Caffe ezzitouna offers a variety of coffee drinks, pastries, and snacks. It is also a popular spot for locals to gather and socialize.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant terrasse khairi is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is situated in a convenient location, just off the main road. It has a pleasant ambiance and the staff is friendly and attentive. The prices are reasonable and the food is delicious. Overall, Restaurant terrasse khairi is a great place to dine.
+33.3497059, 10.4863079
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4698,12 +6586,62 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Pizzeria la mama mednine located at Avenue habib bourguiba, Medenine 4100. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria and Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-01:00, but closed on []. To get there, use these GPS coordinates: 33.347606220716, 10.488111887759. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+la+mama+mednine/data=!4m7!3m6!1s0x1254d7c8bc3068e1:0x9c9c14e8966c7897!8m2!3d33.3470535!4d10.4883059!16s%2Fg%2F11h1m56kt9!19sChIJ4WgwvMjXVBIRl3hslugUnJw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 691 142.</t>
+          <t>Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria with a wide selection of Pizzeria and Restaurant options in Medenine?</t>
+          <t>Day Plan:
+Morning: Exploring Musee des coutumes et traditions de la ville de Medenine for a glimpse into local culture and history.
+Mid-Morning: Trying local cuisine at Cafe Bonkif, known for its cozy atmosphere and delicious coffee and snacks.
+Midday: Visiting jm` lfrdws for its immersive cultural experience and 5-star rating.
+Afternoon: Enjoying the scenic views at Rachid &amp; Sophie, a family-run restaurant with a high reputation for its food and anecdotes.
+Evening: Shopping at WY PIZZA for delicious pizzas and a variety of toppings.
+Night: Relaxing with a refreshing sundae at TONTON Glace, known for its delectable offerings and convenient location.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonkif is a popular cafe located at 9G96+J7Q Medenine, Tunisia. It offers a cozy and inviting atmosphere with a menu featuring a variety of coffee drinks, snacks, and light meals. The cafe is conveniently located with coordinates (33.3497059, 10.4863079) and provides a great place to relax, socialize, or get some work done.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant Ralliement is a restaurant located in Medenine, Tunisia. It has a 4.0 rating on Google, with 14 reviews. It offers a variety of dishes, and is open from 07:00-22:00. The restaurant's coordinates are (33.2333991, 10.4543042).
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4809,12 +6747,62 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Bonkif located at 9G96+J7Q Cafe Bonkif, Medenine. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their link at https://www.google.com/maps/place/Cafe+Bonkif/data=!4m7!3m6!1s0x125529eba7a3feff:0xad1cb8f12eff5622!8m2!3d33.369084!4d10.5107487!16s%2Fg%2F11c2kdrwf3!19sChIJ__6jp-spVRIRIlb_LvG4HK0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 676 569.</t>
+          <t>Cafe Bonkif is a popular cafe located at 9G96+J7Q Medenine, Tunisia. It offers a cozy and inviting atmosphere with a menu featuring a variety of coffee drinks, snacks, and light meals. The cafe is conveniently located with coordinates (33.3497059, 10.4863079) and provides a great place to relax, socialize, or get some work done.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you indulge in top-rated Cafe experiences in Medenine with a convenient location and extended hours?</t>
+          <t>Day Plan:
+Morning: Explore the historic Musée des coutumes et traditions de la ville de Medenine for a glimpse into the city's rich cultural heritage.
+Mid-Morning: Visit the jm` lfrdws museum for a fascinating dive into the region's history and traditions.
+Midday: Savor a delicious lunch at Rachid &amp; Sophie, a cozy family restaurant known for its authentic Tunisian cuisine and warm hospitality.
+Afternoon: Take a stroll through the vibrant streets of Medenine, exploring the local markets for souvenirs and handmade crafts.
+Evening: Engage in a culinary adventure at Restaurant fruit de mer, indulging in fresh seafood dishes while enjoying the charming ambiance.
+Night: Unwind at TONTON Glace, a popular sundae restaurant, where you can satisfy your sweet cravings with a variety of delectable sundae flavors.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ shyf is a Cafe located in medenine, Tunisia. It is open 24 hours a day and has a rating of 4.6 on Google Maps based on 7 reviews. It offers a featured image and has a main category of Cafe and a subcategory of Cafe.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4916,12 +6904,62 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe, check out Cafe de Lac Medenine located at 9GJ8+GP3 cafe de lac medenine, Hy ljndly, Tryq jrb@, Medenine 4100. This top-rated destination is perfect for cafe lovers and offers a range of cafe items to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on none. To get there, use these GPS coordinates: 33.2333991, 10.4543042.</t>
+          <t>Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Which top-rated cafe located at 33.2333991, 10.4543042 is an excellent destination for cafe enthusiasts in Medenine?</t>
+          <t>Day Plan:
+Morning: Explore the Musee des coutumes et traditions de la ville de Medenine
+Mid-Morning: Visit jm` lfrdws to experience the local culture
+Midday: Try local cuisine at Rachid &amp; Sophie
+Afternoon: Take a guided tour of the Central Louage Station
+Evening: Enjoy scenic views at the Creperie Nutella
+Night: Relax with a sundae at TONTON Glace</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café le coin is a cafe located at 8FWJ+3HG cafe le coin, C113, Medenine. Its main category is Cafe and it has a rating of 4.0.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Located in Medenine, Macdoner is a highly-rated restaurant with an impressive 4.5-star rating out of 15 reviews. Its exact coordinates are (33.3497059, 10.4863079) and is conveniently situated at 8FRQ+WMV Macdoner. With a specialization in dining, Macdoner caters to food enthusiasts looking for a delectable culinary experience.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5023,12 +7061,68 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you happen to be in medenine and looking for a nice restaurant, don't hesitate to visit strH@ `jyl located at 9G84+W8C strH@ `jyl, P1, Medenine. This restaurant has received a rating of 4.0 based on 8 reviews, making it a popular spot among locals and tourists alike. While their website and working hours are not available, you can contact them at 56 780 041 for more information.</t>
+          <t>strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>If you're in search of a highly rated dining experience in Medenine, where can you find a restaurant with over 4.0 stars and 8 reviews?</t>
+          <t>Day Plan:
+Morning (9:00 AM - 11:00 AM):
+- Visit Musee des coutumes et traditions de la ville de Medenine to learn about the city's rich heritage and traditions.
+Mid-Morning (11:00 AM - 12:30 PM):
+- Try local cuisine at Restaurant fruit de mer, which serves delicious seafood dishes.
+Midday (12:30 PM - 2:00 PM):
+- Explore Maison d'hotes La Cuesta Medenine and book a room for a comfortable stay in the city.
+Afternoon (2:00 PM - 3:30 PM):
+- Visit the Creperie Nutella to enjoy delicious crepes with a variety of toppings.
+Evening (3:30 PM - 5:30 PM):
+- Take a guided tour of jm` lfrdws museum to gain insights into Medenine's history and cultural heritage.
+Night (5:30 PM - 8:00 PM):
+- Enjoy scenic views at the picturesque Medenine Centre bus stop while taking a break from exploring the city.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palm is a 4.3-star rated cafe located in Medenine, Tunisia at 8FXV+59Q (coordinates: 33.3497059, 10.4863079). It is open from 5am to 11pm and offers a variety of cafe-style food and drinks.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5130,14 +7224,62 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe, check out Monarc Coffee located at 9G29+FMP Monarc Coffee, P1. 
-This top-rated destination is perfect for coffee lovers and offers a range of drinks to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Monarc Coffee, a 4.6-rated cafe in Medenine, Tunisia, offers a cozy ambiance for coffee enthusiasts. Located at 33.3497059, 10.4863079, the cafe serves its customers from 6 AM to midnight daily. With glowing reviews, Monarc Coffee is worth a visit for coffee lovers seeking a respite in the heart of Medenine.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find Monarc Coffee, a highly-rated cafe that operates extended hours and offers a wide selection of coffee beverages?</t>
+          <t>Day Plan:
+Morning: Exploring Musee des coutumes et traditions de la ville de Medenine
+Mid-Morning: Trying local cuisine at Rachid &amp; Sophie
+Midday: Visiting Gare des louages de Medenine and SRT MEDENINE for transportation information
+Afternoon: Enjoying scenic views at the Creperie Nutella and TONTON Glace
+Evening: Participating in an event or activity at Maison d'hotes La Cuesta Medenine
+Night: Experiencing cultural immersion at jm` lfrdws</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennassim is a 4-star rated cafe located in Medenine, Tunisia (33.3497059, 10.4863079). The cafe is open daily from 6:00 AM to 12:00 AM and is known for its great atmosphere and delicious coffee.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Les Délices de Safia is a restaurant located in Zarzis, Tunisia, offering a wide range of culinary delights. Situated at the coordinates (33.8686268, 10.7832941), this eatery is open 24 hours a day, making it a convenient choice for those seeking a late-night bite. With an impressive rating of 5.0, it has received positive reviews from satisfied customers, showcasing its commitment to quality and exceptional service. Whether you're looking for a quick meal or a memorable dining experience, Les Délices de Safia is an excellent choice.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5243,12 +7385,62 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great place to eat, check out KIFSET located at 4100 En face monoprix, Medenine. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website or call them at 25 850 940.</t>
+          <t>KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find the highly-rated Restaurant KIFSET, a popular destination for food enthusiasts with a rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Explore the Musee des coutumes et traditions de la ville de Medenine to immerse yourself in the rich heritage and traditions of Medenine.
+Mid-Morning: Visit jm` lfrdws, a museum offering an immersive cultural experience and insights into the city's history and culture.
+Midday: Try local cuisine at KIFSET, a highly-rated restaurant known for its impressive dining experience and praised by locals and tourists alike.
+Afternoon: Enjoy a relaxing ambiance and savor a delicious tea experience at Cafe La Fiesta, a highly-rated teahouse with a cozy atmosphere.
+Evening: Experience the vibrant atmosphere of Rachid &amp; Sophie, a family restaurant with a great reputation and anecdotes that create a unique dining experience.
+Night: Indulge in delicious sundaes at TONTON Glace, a renowned sundae restaurant with a high rating and a wide variety of flavors to satisfy your sweet cravings.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Afrique, a popular cafe in Medenine located at (33.3458652, 10.4912132), offers a relaxing ambiance with a 5-star rating. Open from 6:00 AM to 11:00 PM, it's a favorite spot for coffee lovers and locals alike, providing a cozy atmosphere for connecting and unwinding.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5350,14 +7542,62 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in medenine and craving some quick bites, head to Fricasse El ghomrassni - fryksy lGmrsny at 8FXQ+34X, Medenine. 
-This highly-rated spot serves up delicious fast food options and has a rating of 4.5. 
-It's open from 06:00-20:00, but closed on Mondays. For more details, check out their website at https://www.google.com/maps/place/Fricass%C3%A9+El+ghomrassni+-+%D9%81%D8%B1%D9%8A%D9%83%D8%A7%D8%B3%D9%8A+%D8%A7%D9%84%D8%BA%D9%85%D8%B1%D8%A7%D8%B3%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1254d776fbddf1eb:0xa40ea9847b59bd8a!8m2!3d33.3477424!4d10.4878604!16s%2Fg%2F11f5kxblpd!19sChIJ6_Hd-3bXVBIRir1Ze4SpDqQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated fast food spot open from 06:00-20:00, except on Mondays?</t>
+          <t>Day Plan:
+Morning: Explore the rich cultural heritage at "Musee des coutumes et traditions de la ville de Medenine." Delve into the captivating exhibits and collections that showcase the city's fascinating history and traditions.
+Mid-Morning: Indulge in delicious local cuisine at Restaurant El Ghomrassni, renowned for its diverse menu and satisfying dishes. Savor the authentic flavors and aromas of Medenine's culinary scene.
+Midday: Visit the Centrale Louage Station and embark on a scenic journey to discover nearby attractions or explore the surrounding areas of Medenine.
+Afternoon: Spend a relaxing afternoon at "SRT MEDENINE," a highly-rated bus and coach transport company. Enjoy a comfortable ride while admiring the picturesque landscapes.
+Evening: Head to "Rachid &amp; Sophie," a family-owned restaurant with a 4.9 rating and a cozy atmosphere. Engage in captivating conversations while savoring delectable dishes and experiencing the warmth of Medenine's hospitality.
+Night: Immerse yourself in the vibrant ambiance of "mHT@ lnql lryfy," a taxi rank that offers a glimpse into the local nightlife. Engage with the friendly locals and soak up the lively energy of Medenine after dark.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Kif is a cafe located in Medenine, Tunisia. It's located at 33.3497059, 10.4863079 and offers 24/7 service.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5447,12 +7687,68 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Castella located at 8FXV+4FW Castella, C108. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates:. For more details, visit their website at or call them at .</t>
+          <t>Castella is a highly-rated restaurant located in Castella, Tunisia, with a 4.8-star rating based on 5 reviews. The restaurant is known for its delicious food and excellent service. If you're looking for a great place to eat in medenine, Castella is definitely worth checking out.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a wide selection of dining options in Medenine?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Creperie Nutella for a delightful breakfast crepe.
+**Mid-Morning:**
+- Visit the Musée des coutumes et traditions de la ville de Medenine to immerse yourself in the rich heritage and traditions of the city.
+**Midday:**
+- Savor the local cuisine at Rachid &amp; Sophie, a family restaurant renowned for its authentic Tunisian dishes and anecdotes.
+**Afternoon:**
+- Enjoy the scenic views at TONTON Glace while indulging in a refreshing sundae.
+**Evening:**
+- Explore the Central Louage Station, a transportation hub, and engage with locals to learn about local culture.
+**Night:**
+- Relax and rejuvenate at Cafe Kif, a highly-rated cafe with a cozy ambiance, where you can connect with fellow travelers or locals over coffee or tea.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Kif is a highly-rated cafe in Medenine, Tunisia, open 24/7. It offers a cozy environment with a menu that focuses on coffee and tea. Its convenient location and welcoming atmosphere make it a popular spot for locals and tourists alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5554,12 +7850,68 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out TONTON Glace located at 8FRQ+P94 TONTON Glace, P19, Medenine. This top-rated destination is perfect for Restaurant de sundae lovers and offers a range of options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-02:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/TONTON+Glace/data=!4m7!3m6!1s0x1254d7ba5aca4d07:0x434f5215c522b9f4!8m2!3d33.3417553!4d10.4884632!16s%2Fg%2F11ryrf5xqt!19sChIJB03KWrrXVBIR9LkixRVST0M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Medenine that is perfect for those seeking delicious Restaurant de sundae options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic "Musee des coutumes et traditions de la ville de Medenine" for insights into local heritage.
+**Mid-Morning:**
+* Try local cuisine at "Rachid &amp; Sophie," known for its family-friendly atmosphere and delectable menu.
+**Midday:**
+* Visit the picturesque Maison d'hotes La Cuesta Medenine for a charming stay and engage in their offered activities.
+**Afternoon:**
+* Enjoy scenic views at the waterfront of Medenine and soak in the beauty of the city.
+**Evening:**
+* Dine at the highly-rated "Pizza Pino" for authentic Italian flavors and a cozy ambiance.
+**Night:**
+* Experience cultural immersion at "jm` lfrdws" and discover the rich history and traditions of Medenine.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennassim is a 4-star rated cafe located in Medenine, Tunisia (33.3497059, 10.4863079). The cafe is open daily from 6:00 AM to 12:00 AM and is known for its great atmosphere and delicious coffee.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5661,14 +8013,62 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, check out Poulet d'or located at 8FVQ+FX9 Poulet d'or, Medenine. 
-This highly-rated destination offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Poulet+d%27or/data=!4m7!3m6!1s0x1254d726c80fbbdd:0xf41c21c4e922937d!8m2!3d33.3436714!4d10.4899824!16s%2Fg%2F11fvgxz8k5!19sChIJ3bsPyCbXVBIRfZMi6cQhHPQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 533 372.</t>
+          <t>Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Which top-rated restaurant with a 5.0 rating in Medenine serves food from various categories and can be located using GPS coordinates 33.3497059, 10.4863079?</t>
+          <t>Day Plan:
+Morning: Explore the city of Medenine, visit the Musee des coutumes et traditions de la ville de Medenine to discover the city's cultural heritage.
+Mid-Morning: Try local cuisine at KIFSET, a highly-rated restaurant offering a delightful dining experience.
+Midday: Visit Maison d'hotes La Cuesta Medenine, a serene residence with a garden, perfect for relaxation and rejuvenation.
+Afternoon: Engage in outdoor activities at the Central Louage Station, offering transportation services for exploring the surrounding areas.
+Evening: Experience cultural immersion at jm` lfrdws, a museum showcasing the historical and cultural insights of Medenine.
+Night: Indulge in the flavors of Restaurant El Ghomrassni, a fast-food restaurant offering a variety of dishes to satisfy your cravings.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonkif is a cafe located in Medenine, Tunisia. It is open from 5:00 AM to 10:00 PM and offers a variety of food and drink options. The cafe is known for its friendly staff and comfortable atmosphere. It is also a popular spot for locals and tourists alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5766,12 +8166,62 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Mek D'hel located at 47 Avenue Habib Bourguiba Sud, Medenine. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:30. To get there, use these GPS coordinates: 33.352469076524, 10.482030002009.</t>
+          <t>Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>What is the highly-rated restaurant located at 47 Avenue Habib Bourguiba Sud in Medenine, perfect for Restaurant lovers with a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Musée des coutumes et traditions de la ville de Medenine to immerse yourself in the rich heritage and traditions of Medenine.
+Mid-Morning: Visit the jm` lfrdws museum to gain historical and cultural insights.
+Midday: Try local cuisine at Les Delices de Safia, a 5-star restaurant offering a cozy atmosphere and a wide variety of dishes.
+Afternoon: Take a guided tour of the Central Louage Station, learning about transportation services in Medenine.
+Evening: Enjoy scenic views and engage in outdoor activities at Hallway Coffee Shop, a popular café with a 4.1 rating.
+Night: Relax with a sundae at TONTON Glace, renowned for its delicious offerings and 4.2-star rating.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hallway Coffee Shop is a popular cafe located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway with the coordinates of (32.620135, -85.375224). It opens daily from 6:45 AM to 9:00 PM and has received a rating of 4.1 based on 32 customer reviews.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Les Delices de Safia is a 5-star restaurant located at the foolowing address : F3R8+HCM Les delices de safia, Hicham route medenine, Zarzis 4120. Situated at the coordinates (33.8686268, 10.7832941), it is open 24/7 and offers a wide variety of dishes to satisfy all tastes. With a cozy and welcoming atmosphere, Les Delices de Safia is the perfect place to enjoy a delicious meal with friends or family.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5873,14 +8323,63 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Restaurant terrasse khairi located at 8FWX+4P4 Restaurant terrasse khairi, P1, Medenine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, call them at 58 924 647.</t>
+          <t>Restaurant terrasse khairi is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is situated in a convenient location, just off the main road. It has a pleasant ambiance and the staff is friendly and attentive. The prices are reasonable and the food is delicious. Overall, Restaurant terrasse khairi is a great place to dine.
+33.3497059, 10.4863079</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated restaurant destination offering a wide selection of dining options for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Medenine's rich cultural heritage at Musee des coutumes et traditions de la ville de Medenine
+Mid-Morning: Visiting jm` lfrdws, a museum offering an immersive cultural experience
+Midday: Trying local cuisine at Rachid &amp; Sophie, a highly-rated family restaurant
+Afternoon: Enjoying a relaxing and scenic walk at Castella, a beautiful coastal area
+Evening: Indulging in a delicious dinner at Pizza Pino, a pizzeria renowned for its exceptional flavors
+Night: Relaxing and enjoying the ambiance at TONTON Glace, a popular sundae restaurant in the city center</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the TonTon is a cafe located in Salon de the TonTon, Medenine, with coordinates (51.5759361, -0.1436267). It has a rating of 4.4 based on 8 reviews. The cafe offers its services from 07:00 to 23:00 and is closed on no specific days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Castella is a highly-rated restaurant located in Castella, Tunisia, with a 4.8-star rating based on 5 reviews. The restaurant is known for its delicious food and excellent service. If you're looking for a great place to eat in medenine, Castella is definitely worth checking out.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5974,12 +8473,62 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out dr Dyf@ located at 8GXF+MPP dr Dyf@, Medenine. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B6%D9%8A%D8%A7%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1255291543dbdd33:0xcf808c715355441a!8m2!3d33.349621!4d10.5242432!16s%2Fg%2F11tp5w27jm!19sChIJM93bQxUpVRIRGkRVU3GMgM8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Dr Dyf@ is a restaurant located in Medenine, Tunisia (33.3497059, 10.4863079), with a 4.0 rating.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Medenine is perfect for those seeking culinary delights, boasting a 4.0 rating and a convenient location at dr Dyf@?</t>
+          <t>Day Plan:
+Morning: Explore the "Musee des coutumes et traditions de la ville de Medenine" to immerse yourself in the rich heritage and traditions of Medenine.
+Mid-Morning: Try local cuisine at "Rachid &amp; Sophie," a family restaurant with a great reputation and delicious anecdotes.
+Midday: Visit the "Maison d'hotes La Cuesta Medenine" for a relaxing stay and enjoy the hotel's amenities.
+Afternoon: Engage in outdoor activities like biking or hiking at a nearby park or scenic spot.
+Evening: Experience cultural immersion at "jm` lfrdws," a museum offering a 5-star cultural experience.
+Night: Enjoy scenic views at "TONTON Glace," a highly-rated sundae restaurant with a wide variety of flavors and a convenient location.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café le coin is a cafe located at 8FWJ+3HG cafe le coin, C113, Medenine. Its main category is Cafe and it has a rating of 4.0.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6085,12 +8634,68 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Pizza pino located at 8FVW+8PP Pizza pino, P1, Medenine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Pizza+pino/data=!4m7!3m6!1s0x1254d748b21f8269:0x22f8c66bf484af94!8m2!3d33.3433495!4d10.4968184!16s%2Fg%2F11qnfgvz9y!19sChIJaYIfskjXVBIRlK-E9GvG-CI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 045 290.</t>
+          <t>Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>What is the top-rated Pizzeria with a 5.0 rating and a wide range of options in Medenine?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the cultural heritage at the "Musee des coutumes et traditions de la ville de Medenine."
+**Mid-Morning:**
+- Visit the "jm` lfrdws" museum for historical and cultural insights.
+**Midday:**
+- Try local cuisine at the highly-rated "Poulet d'Or" restaurant.
+**Afternoon:**
+- Enjoy the ambiance and tea selection at "Cafe La Fiesta."
+**Evening:**
+- Visit the Central Louage Station for scenic views of the city.
+**Night:**
+- Relax with a sundae at the renowned "TONTON Glace" restaurant.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Palm, located at Medenine (33.3497059, 10.4863079), is a cozy cafe offering a variety of coffee and tea selections. Its convenient hours from 5 AM to 11 PM cater to early risers and late-night owls. With a 4.3-star rating based on 3 reviews, Cafe Palm is highly recommended among locals and visitors alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6192,12 +8797,62 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Palm located at 8FXV+59Q Cafe Palm, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Cafe Palm is a 4.3-star rated cafe located in Medenine, Tunisia at 8FXV+59Q (coordinates: 33.3497059, 10.4863079). It is open from 5am to 11pm and offers a variety of cafe-style food and drinks.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Medenine can you go for a top-rated Cafe experience with ample choices for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Exploring the rich heritage at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Trying local cuisine at the highly-rated Cafe Kif, known for its cozy ambiance and focus on coffee and tea.
+Midday: Visiting the iconic "jm` lfrdws," a museum offering an immersive cultural experience with captivating exhibits and collections.
+Afternoon: Taking a guided tour of the Central Louage Station, a service station offering transportation services and providing insights into the local transportation system.
+Evening: Relaxing with a soothing sundae at the renowned TONTON Glace, known for its delicious and diverse flavors.
+Night: Shopping for local souvenirs and unique crafts at the vibrant market in Medenine.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Kif is a highly-rated cafe in Medenine, Tunisia, open 24/7. It offers a cozy environment with a menu that focuses on coffee and tea. Its convenient location and welcoming atmosphere make it a popular spot for locals and tourists alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+**lmT`m ljm`y bmdnyn** is a restaurant located in Medenine. It's famous for its quality service and delicious dishes. The restaurant has got 5.0 stars rating on Google with 1 review. Its location is 33.3497059° N, 10.4863079° E.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6303,12 +8958,68 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Kif located at 9F3H+MPM Cafe Kif, Unnamed Road, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kif/data=!4m7!3m6!1s0x1255292386a0b901:0x9fd21a0229318373!8m2!3d33.3542123!4d10.4793015!16s%2Fg%2F11qzx9m8yn!19sChIJAbmghiMpVRIRc4MxKQIa0p8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 604 203.</t>
+          <t>Cafe Kif is a cafe located in Medenine, Tunisia. It's located at 33.3497059, 10.4863079 and offers 24/7 service.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café (4.3 stars) in Medenine that stays open 24 hours a day?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the historic city of Medenine, visiting landmarks like the "Musee des coutumes et traditions de la ville de Medenine" for a glimpse into local culture.
+**Mid-Morning:**
+- Indulge in local cuisine at "Les Délices de Safia," renowned for its wide range of culinary delights.
+**Midday:**
+- Take a break from the hustle and bustle at "TONTON Glace" for a refreshing sundae and enjoy the lively atmosphere.
+**Afternoon:**
+- Immerse in the art and culture of Medenine at "jm` lfrdws," a museum showcasing the city's rich heritage through captivating exhibits.
+**Evening:**
+- Experience the warmth and hospitality of "Rachid &amp; Sophie," enjoying anecdotes and delicious family-style dining.
+**Night:**
+- Unwind at the "Central Louage Station," a service station that offers transportation services and a chance to mingle with locals.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Les Délices de Safia is a restaurant located in Zarzis, Tunisia, offering a wide range of culinary delights. Situated at the coordinates (33.8686268, 10.7832941), this eatery is open 24 hours a day, making it a convenient choice for those seeking a late-night bite. With an impressive rating of 5.0, it has received positive reviews from satisfied customers, showcasing its commitment to quality and exceptional service. Whether you're looking for a quick meal or a memorable dining experience, Les Délices de Safia is an excellent choice.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6410,12 +9121,63 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in Medenine, Cafe Afrique at 8FWR+9M7 Cafe Afrique is a must-visit spot for Cafe lovers. Rated 5.0, it's open from 06:00-23:00 and offers a range of Cafe options. Use the GPS coordinates (33.3458652, 10.4912132) to get there.</t>
+          <t>Cafe Afrique is a highly-rated cafe situated at 8FWR+9M7, Medenine, Tunisia. It operates from 06:00 to 23:00, with a rating of 5 out of 5 based on 3 reviews. The cafe features an inviting atmosphere and a diverse menu, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>What is the highly acclaimed cafe in Medenine that is known for its exceptional coffee and has GPS coordinates of (33.3458652, 10.4912132)?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the rich cultural history of Medenine at the "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Immerse yourself in the local heritage and visit "jm` lfrdws," a museum that offers a 5-star rated cultural experience.
+Midday: Indulge in the local cuisine at Rachid &amp; Sophie, a family restaurant known for its anecdotes and a 4.9 rating.
+Afternoon: Spend the afternoon enjoying the delicious crepes at The Creperie Nutella, renowned for its sweet and savory options.
+Evening: Take a stroll through the city and enjoy the scenic sunset views at [Scenic Spot].
+Night: Experience the local nightlife and enjoy a sundae at TONTON Glace, a highly-rated spot with a wide variety of flavors.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Bravia:**
+Located in Medenine (33.3497059, 10.4863079), Café Bravia is a cozy spot to relax and enjoy a cup of coffee. Its convenient hours (6 AM - 10 PM) make it an ideal place for a morning pick-me-up or an evening treat. With a 5.0 rating and positive reviews, Café Bravia is highly recommended for coffee enthusiasts looking for a warm and inviting atmosphere.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6521,12 +9283,68 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated dining experience, head to Restaurant Chez Sadok at 8FWV+R55 Restaurant Chez Sadok, C108, Medenine. It's a must-visit spot for Restaurant lovers, offering a delicious menu to choose from. With a 5.0 rating, it's a great choice for a memorable meal. The restaurant is open from 10:00-00:00 during the week. For more information, call them at 21 049 851.</t>
+          <t>Restaurant Chez Sadok, located in Medenine, Tunisia (33.349706, 10.486308), offers a delightful dining experience with a 5-star rating. This restaurant specializes in Restaurant cuisines and is open from 10:00 AM to 00:00 AM, providing ample time to savor its culinary delights.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated restaurant with a must-try menu and a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Musee des coutumes et traditions de la ville de Medenine for a glimpse into local heritage and culture.
+Mid-Morning:
+- Visit jm` lfrdws to delve deeper into the cultural history of Medenine and gain valuable insights.
+Midday:
+- Satisfy your taste buds with authentic local flavors at Restaurant fruit de mer, renowned for its fresh and delicious seafood dishes.
+Afternoon:
+- Head to TONTON Glace for a sweet treat and indulge in their highly-rated sundaes, offering a variety of flavors to delight your palate.
+Evening:
+- Experience the vibrant atmosphere ofRachid &amp; Sophie, a family-run restaurant with excellent reviews, offering a unique and memorable dining experience.
+Night:
+- Take a leisurely stroll through the streets of Medenine, soaking in the city's charm and discovering hidden gems before retiring for the night.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hallway Coffee Shop is a popular cafe located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway with the coordinates of (32.620135, -85.375224). It opens daily from 6:45 AM to 9:00 PM and has received a rating of 4.1 based on 32 customer reviews.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Located in Medenine, Macdoner is a highly-rated restaurant with an impressive 4.5-star rating out of 15 reviews. Its exact coordinates are (33.3497059, 10.4863079) and is conveniently situated at 8FRQ+WMV Macdoner. With a specialization in dining, Macdoner caters to food enthusiasts looking for a delectable culinary experience.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6624,14 +9442,63 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Restaurant El Ghomrassni (patisserie le mois de ramadan) located at 8FPP+Q78 Restaurant El Ghomrassni (patisserie le mois de ramadan), P19. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Restaurant+El+Ghomrassni+%28p%C3%A2tisserie+le+mois+de+ramadan%29/data=!4m7!3m6!1s0x1254d7b20955f17f:0xc4b13f4d7d1664e9!8m2!3d33.3369025!4d10.4857057!16s%2Fg%2F11h7f_qhys!19sChIJf_FVCbLXVBIR6WQWfU0_scQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find Restaurant El Ghomrassni (patisserie le mois de ramadan), a top-rated destination for Restauration rapide lovers with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore Medenine's cultural heritage at the "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Engage in outdoor activities at the scenic spot (33.3497059, 10.4863079).
+Midday: Try local cuisine at Restaurant fruit de mer, renowned for its seafood dishes.
+Afternoon: Enjoy a relaxing picnic at the serene park (33.3497059, 10.4863079).
+Evening: Experience the vibrant ambiance of Rachid &amp; Sophie, a family-run restaurant known for its anecdotes.
+Night: Immerse yourself in the flavors of Tunisian cuisine at "Le Creperie Nutella," a popular crepe restaurant.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6733,12 +9600,63 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated dining experience, consider visiting Restaurant fruit de mer. Located at 8FVQ+7MQ, this establishment is a haven for Restaurant enthusiasts. With a solid rating of 4.0, it's a must-visit spot for those seeking a memorable culinary adventure. Restaurant fruit de mer is open during these hours: 06:00-13:00, but remains closed on Fridays. To get there, use these GPS coordinates: 33.5464595, -7.576255. For more details, you can reach them at 53 348 364.</t>
+          <t>Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated restaurant (4.0) called Restaurant fruit de mer, located at GPS coordinates 33.5464595, -7.576255?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant ambiance and sample delectable offerings at Cafe d'Azur.
+Mid-Morning: Immerse yourself in the cultural heritage at the Musee des coutumes et traditions de la ville de Medenine.
+Midday: Delight in a tantalizing dining experience at Brik Amy ALI, known for its diverse menu catering to various tastes.
+Afternoon: Stroll through the Central Louage Station, a service station offering transportation services, and engage with locals.
+Evening: Take a leisurely walk to jM` lfrdws, a museum offering an immersive cultural experience.
+Night: Savor a sumptuous dinner at Rachid &amp; Sophie, a family restaurant renowned for its anecdotes and unique dining experience.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Brik Amy ALI is a renowned restaurant located in Medenine, Tunisia, at the coordinates (33.3497059, 10.4863079). It specializes in offering a delectable dining experience, with a diverse menu catering to various tastes. The restaurant opens its doors at 11:00 and continues to serve until 00:00, providing ample time for customers to savor its culinary delights. Its prime location makes it easily accessible, inviting food enthusiasts to indulge in its delectable cuisine.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6836,12 +9754,68 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for something fun to do, check out 82 Sandwich &amp; malfouf. This top-rated Sandwicherie is located at 8FVR+6VP 82 Sandwich &amp; malfouf, P1, Medenine.  With a rating of 5.0, it's a must-visit spot.</t>
+          <t>82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated sandwicherie with a 5.0 rating, located in Medenine?</t>
+          <t>Day Plan:
+Morning:
+- Explore the rich heritage and traditions of Medenine at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning:
+- Immerse yourself in the cultural experience at "jm` lfrdws," a museum offering historical and cultural insights.
+Midday:
+- Enjoy the authentic flavors of Medenine cuisine at "Rachid &amp; Sophie," renowned for its family-style dining and storytelling ambience.
+Afternoon:
+- Take a guided tour of "Central Louage Station," a transportation hub that offers insights into the city's infrastructure and connectivity.
+Evening:
+- Engage in outdoor activities and scenic views at "Medenine Centre," a popular bus stop and gathering place for locals and tourists.
+Night:
+- Experience a unique sundae indulgence at "TONTON Glace," a highly-rated sundae restaurant with a wide variety of flavors to satisfy your cravings.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bruxelles is a 4.3-rated cafe located in Medenine, Tunisia at the coordinates (33.348982266694, 10.485188599175). It is open from 6:00 AM to 9:00 PM and specializes in cafe fare.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6939,12 +9913,62 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, check out lmT`m ljm`y bmdnyn located at 8FQ9+8XX lmT`m ljm`y bmdnyn. With a rating of 5.0, it's a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>**lmT`m ljm`y bmdnyn** is a restaurant located in Medenine. It's famous for its quality service and delicious dishes. The restaurant has got 5.0 stars rating on Google with 1 review. Its location is 33.3497059° N, 10.4863079° E.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated restaurant with a 5.0 rating, located at GPS coordinates 33.3497059, 10.4863079?</t>
+          <t>Day Plan:
+Morning: Explore the rich heritage of Medenine at Musee des coutumes et traditions de la ville de Medenine, where you can immerse yourself in the local lore and cultural history.
+Mid-Morning: Visit jm` lfrdws for an immersive cultural experience and learn about the fascinating history and traditions of Medenine.
+Midday: Satisfy your taste buds with a delightful lunch at Rachid &amp; Sophie, a family restaurant known for its delicious food, anecdotes, and warm ambiance.
+Afternoon: Take a guided tour of Castella, a highly-rated restaurant renowned for its delectable cuisine and excellent service. Marvel at the intricate architecture and savor the flavors of traditional Tunisian dishes.
+Evening: Indulge in retail therapy at 82 Sandwich &amp; malfouf, where you can experience the vibrant atmosphere of a local market and purchase unique souvenirs and local delicacies.
+Night: End the day on a sweet note with a visit to TONTON Glace, a popular sundae restaurant. Choose from a wide variety of flavors and enjoy the delectable sundaes while soaking in the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Castella is a highly-rated restaurant located in Castella, Tunisia, with a 4.8-star rating based on 5 reviews. The restaurant is known for its delicious food and excellent service. If you're looking for a great place to eat in medenine, Castella is definitely worth checking out.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7050,14 +10074,62 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Pizzeria bella roma located at Pizzeria bella roma, Medenine. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 50.045997, 8.240099. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+bella+roma/data=!4m7!3m6!1s0x1255297ed6a710c1:0xe5b361301a845376!8m2!3d33.3529499!4d10.4866645!16s%2Fg%2F11r6mh4vzf!19sChIJwRCn1n4pVRIRdlOEGjBhs-U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 097 789.</t>
+          <t>Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria named Pizzeria bella roma, known for its exceptional Pizzeria offerings in Medenine?</t>
+          <t>Day Plan:
+Morning: Visit the jm` lfrdws museum to immerse yourself in the rich cultural heritage of Medenine.
+Mid-Morning: Explore the local culture and traditions at Musee des coutumes et traditions de la ville de Medenine.
+Midday: Savor a delicious meal at the highly-rated Rachid &amp; Sophie restaurant, renowned for its authentic local cuisine.
+Afternoon: Relax and rejuvenate with a massage at Maison d'hotes La Cuesta Medenine, a 4.7-star rated residence known for its tranquil ambiance.
+Evening: Stroll through the vibrant streets of Medenine, browsing local shops and markets for unique souvenirs.
+Night: Indulge in the tantalizing flavors of local cuisine at Restaurant fruit de mer, offering a delightful seafood dining experience.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7159,12 +10231,68 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great dining experience, look no further than Brik Amy ALI, located at Medenine. This top-rated restaurant is perfect for food lovers and offers a range of dishes in the Restaurant category. With a rating of 5.0, it's a must-visit spot. Brik Amy ALI is open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Brik Amy ALI is a renowned restaurant located in Medenine, Tunisia, at the coordinates (33.3497059, 10.4863079). It specializes in offering a delectable dining experience, with a diverse menu catering to various tastes. The restaurant opens its doors at 11:00 and continues to serve until 00:00, providing ample time for customers to savor its culinary delights. Its prime location makes it easily accessible, inviting food enthusiasts to indulge in its delectable cuisine.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>If you're in Medenine and craving an exceptional dining experience, what top-rated restaurant should you visit in the Restaurant category, boasting a 5.0 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+**Mid-Morning:**
+* Visit the "jm` lfrdws" museum to immerse in the local history and traditions.
+**Midday:**
+* Enjoy a traditional lunch at "Rachid &amp; Sophie," known for its authentic recipes and anecdotes.
+**Afternoon:**
+* Explore the local cuisine at "Restaurant El Ghomrassni," offering a variety of traditional dishes.
+**Evening:**
+* Take a stroll through the serene Parc de Medenine, enjoying the tranquil ambiance and lush greenery.
+**Night:**
+* Experience the bustling atmosphere and local flavors at "Cafe La Fiesta," known for its cozy ambiance and delicious tea.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennassim is a 4-star rated cafe located in Medenine, Tunisia (33.3497059, 10.4863079). The cafe is open daily from 6:00 AM to 12:00 AM and is known for its great atmosphere and delicious coffee.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+**lmT`m ljm`y bmdnyn** is a restaurant located in Medenine. It's famous for its quality service and delicious dishes. The restaurant has got 5.0 stars rating on Google with 1 review. Its location is 33.3497059° N, 10.4863079° E.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7266,14 +10394,62 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great restaurant, check out Mowgli Burger located at Route de Medenine, Zarzis. 
-This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at  or call them at +33 7 52 22 98 03.</t>
+          <t>Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 5.0 rating in Medenine, featuring a diverse menu and offering convenient GPS coordinates for navigation?</t>
+          <t>Day Plan:
+Morning: Exploring the Musée des coutumes et traditions de la ville de Medenine
+Mid-Morning: Trying local cuisine at Poulet d'Or
+Midday: Visiting the Central Louage Station
+Afternoon: Enjoying a crepe at The Creperie Nutella
+Evening: Participating in an event or activity at jm` lfrdws
+Night: Relaxing with a sundae at TONTON Glace</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lrwsy is a cafe located in Médénine, Tunisia. It's rated 5.0 out of 5 stars based on one review. The cafe's exact location is 8FP9+888.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7379,14 +10555,68 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out WY PIZZA located at Route de Medenine, Km 3 5 4170, Zarzis. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOt3A1jSz0Ixe3Fuh_hQ_Lys5kPG9aagc3S0rcO=w408-h725-k-no or call them at 53 609 323.</t>
+          <t>WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>What is the top-rated Pizzeria destination in Medenine with a rating of 4.3, conveniently located along Route de Medenine, Km 3 5 4170, in Zarzis?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the cultural heritage at the Musee des coutumes et traditions de la ville de Medenine.
+**Mid-Morning:**
+* Visit the historical landmark, jm` lfrdws, to delve into the rich past of Medenine.
+**Midday:**
+* Savor authentic local cuisine at Restaurant Chez Sadok, a 5-star dining destination.
+**Afternoon:**
+* Relax and indulge in a spa treatment at Maison d'hotes La Cuesta Medenine, a luxurious hotel with a serene atmosphere.
+**Evening:**
+* Wander through the vibrant streets and experience the local market for unique souvenirs and cultural insights.
+**Night:**
+* Immerse yourself in the lively ambiance of Rachid &amp; Sophie, a family restaurant known for its delicious food and captivating anecdotes.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant Chez Sadok, located in Medenine, Tunisia (33.349706, 10.486308), offers a delightful dining experience with a 5-star rating. This restaurant specializes in Restaurant cuisines and is open from 10:00 AM to 00:00 AM, providing ample time to savor its culinary delights.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7492,12 +10722,63 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, Les delices de safia located at F3R8+HCM Les delices de safia, Hicham route medenine, Zarzis 4120 is the perfect destination. With a rating of 5.0, this restaurant is open 24 hours a day and offers a range of categories to choose from. To get there, use these GPS coordinates: 33.8686268, 10.7832941. For more details, visit their website at https://www.google.com/maps/place/Les+delices+de+safia/data=!4m7!3m6!1s0x13aae90eef7a575f:0x60269bc26de9e247!8m2!3d33.4914677!4d11.0660418!16s%2Fg%2F11q84jw9sv!19sChIJX1d67w7pqhMRR-LpbcKbJmA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 100 484.</t>
+          <t>Les Délices de Safia is a restaurant located in Zarzis, Tunisia, offering a wide range of culinary delights. Situated at the coordinates (33.8686268, 10.7832941), this eatery is open 24 hours a day, making it a convenient choice for those seeking a late-night bite. With an impressive rating of 5.0, it has received positive reviews from satisfied customers, showcasing its commitment to quality and exceptional service. Whether you're looking for a quick meal or a memorable dining experience, Les Délices de Safia is an excellent choice.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant (rated 5.0) in Medenine, Tunisia, that is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the captivating exhibits and collections at the Musée des coutumes et traditions de la ville de Medenine to immerse yourself in the rich heritage and traditions of Medenine.
+Mid-Morning: Visit Cafe d'Azur, a renowned cafe with a superb rating and a captivating ambiance, for a delightful coffee break and indulge in delectable offerings.
+Midday: Savor the authentic flavors of Medenine's cuisine at Restaurant fruit de mer, a highly-rated seafood restaurant offering a delightful array of dishes.
+Afternoon: Take a guided tour of Maison d'hotes La Cuesta Medenine, a 4.7-star rated residence with 31 rooms, to appreciate its beautiful garden and clean and comfortable accommodations.
+Evening: Experience the vibrant atmosphere of Rachid &amp; Sophie, a family restaurant with a 4.9 rating, and enjoy their delicious food and anecdotes for a memorable dining experience.
+Night: Relax and rejuvenate at TONTON Glace, a highly-rated sundae restaurant offering a wide variety of flavors to satisfy your sweet cravings at any time.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7603,12 +10884,62 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out SRT MEDENINE located at Avenue 18 janvier 1952, Medenine 4100. This top-rated destination is perfect for Societe de transport en bus et autocar lovers and offers a range of Societe de transport en bus et autocar to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://srtm.tn/ or call them at 75 640 070.</t>
+          <t>SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>What top-rated destination in Medenine offers a range of options for Societe de transport en bus et autocar enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the "Musee des coutumes et traditions de la ville de Medenine" to delve into the rich heritage of Medenine.
+Mid-Morning: Indulge in local cuisine at Restaurant El Ghomrassni, renowned for its fast food delicacies.
+Midday: Visit the Gare des louages de Medenine, a central bus stop offering convenient transportation options.
+Afternoon: Take a guided tour of "jm` lfrdws," a museum showcasing Medenine's captivating history and culture.
+Evening: Head to Pizzeria Bella Roma for a delightful dinner, savoring authentic Italian pizzas.
+Night: Relax and rejuvenate with a soothing sundae experience at TONTON Glace, known for its wide variety of flavors.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Afrique is a highly-rated cafe situated at 8FWR+9M7, Medenine, Tunisia. It operates from 06:00 to 23:00, with a rating of 5 out of 5 based on 3 reviews. The cafe features an inviting atmosphere and a diverse menu, making it a popular destination for locals and tourists alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7714,14 +11045,68 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a reliable transportation service, check out SRT MEDENINE located at Avenue 18 janvier 1952, Medenine 4100. 
-This top-rated destination is perfect for those seeking a reputable bus and coach transport company and offers various services to choose from.
-With a rating of 3.9, it's a must-visit spot for your transportation needs. To get there, use the GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://srtm.tn/ or call them at 75 640 070.</t>
+          <t>SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where can you find a reputable and highly-rated bus and coach transportation company in Medenine, known for its reliability and variety of services?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the rich heritage at Musée des coutumes et traditions de la ville de Medenine.
+**Mid-Morning:**
+- Immerse yourself in the cultural experience at jm` lfrdws.
+**Midday:**
+- Savor the authentic flavors of Tunisian cuisine at Restaurant Chez Sadok.
+**Afternoon:**
+- Engage in outdoor activities like hiking or biking at Parc National de Medenine.
+**Evening:**
+- Visit the scenic Gare des louages de Medenine for a historical and architectural glimpse of the city.
+**Night:**
+- Experience the vibrant nightlife at Rachid &amp; Sophie, known for its anecdotes and unique ambiance.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Costa, located in Medenine (coordinates 33.3497059,10.4863079), offers a cozy ambiance and a 4.3 rating on Google. With 41 reviews, this cafe caters to coffee enthusiasts and is open from 6 AM to midnight every day.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant Chez Sadok, located in Medenine, Tunisia (33.349706, 10.486308), offers a delightful dining experience with a 5-star rating. This restaurant specializes in Restaurant cuisines and is open from 10:00 AM to 00:00 AM, providing ample time to savor its culinary delights.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7815,12 +11200,68 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a reliable Arret de bus, consider Gare des louages de Medenine situated at Gare des louages de Medenine, Medenine. With a commendable rating of 3.3, this popular destination is an ideal choice for Arret de bus enthusiasts. For more details, visit their website at https://www.google.com/maps/place/Gare+des+louages+de+Medenine/data=!4m7!3m6!1s0x1254d629598bbe8f:0x108bbe847779605b!8m2!3d33.3464316!4d10.4908903!16s%2Fg%2F11rrz584d!19sChIJj76LWSnWVBIRW2B5d4S-ixA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the number provided.</t>
+          <t>The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where can you find a reliably rated Arret de bus with a convenient location in Medenine?</t>
+          <t>Day Plan:
+Morning:
+- Exploring the Musee des coutumes et traditions de la ville de Medenine to delve into the rich heritage and traditions of Medenine.
+Mid-Morning:
+- Trying local cuisine at Dar Dhiafa Medenine, a highly-rated family-friendly restaurant with a focus on grilled dishes and a cozy atmosphere.
+Midday:
+- Visiting the jm` lfrdws museum for an immersive cultural experience and gaining historical and cultural insights about Medenine.
+Afternoon:
+- Enjoying a relaxing afternoon at TONTON Glace, a renowned sundae restaurant with a wide variety of flavors to satisfy your sweet cravings.
+Evening:
+- Participating in the anecdotes at Rachid &amp; Sophie, a highly-rated family restaurant known for its unique and memorable dining experience.
+Night:
+- Experiencing the scenic views at The Creperie Nutella, a popular crepe restaurant offering delicious crepes and a friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bruxelles is a 4.3-rated cafe located in Medenine, Tunisia at the coordinates (33.348982266694, 10.485188599175). It is open from 6:00 AM to 9:00 PM and specializes in cafe fare.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7918,14 +11359,62 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Gare routiere de Medenine located at Gare routiere de Medenine. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of categories to choose from. 
-With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.3604811, 10.4686472.</t>
+          <t>Travelers bound for Medenine, Tunisia can use the services of Gare Routiere. It is a bus station with a 2.5-star rating on Google. To get there, just follow the coordinates 33.3604811, 10.4686472.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>What top-rated destination in Medenine is beloved by Arret de bus enthusiasts and offers a variety of categories?</t>
+          <t>Day Plan:
+Morning: Explore the Musée des coutumes et traditions de la ville de Medenine, immersing yourself in the rich heritage and traditions of the city.
+Mid-Morning: Visit the taxi rank mHT@ lnql lryfy and take a short ride to the picturesque TONTON Glace for a refreshing and indulgent sundae.
+Midday: Savor the flavors of Medenine's seafood cuisine at Restaurant fruit de mer, where you can enjoy a delightful lunch with fresh local delicacies.
+Afternoon: Engage in outdoor activities at the picturesque Creperie Nutella, savoring the delicious crepes while taking in the charm of the surroundings.
+Evening: Participate in the vibrant atmosphere of Rachid &amp; Sophie for dinner, relishing the anecdotes and authentic local cuisine.
+Night: Relax and unwind at the Maison d'hotes La Cuesta Medenine, enjoying the comfortable ambiance and serene atmosphere of this charming hotel.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Medenine, this café offers a cozy ambiance with a rating of 4.0 out of 5 based on 18 reviews. It is open daily from 7:00 AM to midnight and offers a phone number (+216 75 646 887) for further inquiries. Its exact coordinates are (33.3497059, 10.4863079), allowing for easy navigation.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8023,14 +11512,64 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Station de louage et bus located at 9F69+9PV Station de louage et bus, Medenine. 
-This top-rated destination is perfect for Guichet de gare lovers and offers a range of Guichet de gare to choose from. 
-With a rating of 2.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.34644, 10.4907083. For more details, visit their website at https://www.google.com/maps/place/Station+de+louage+et+bus/data=!4m7!3m6!1s0x1255291e7a0c3283:0x5aaa4f3f2f4ee9e8!8m2!3d33.3605999!4d10.4687594!16s%2Fg%2F11rzq00g_r!19sChIJgzIMeh4pVRIR6OlOLz9Pqlo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station de louage et bus**
+The Station de louage et bus provides transportation services to travelers. It offers a ticket office and bus travel options. The station is located at 9F69+9PV Medenine, Tunisia. It ranks 2.3 out of 5 based on 6 reviews.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a top-rated destination boasting a range of Guichet de gare options?</t>
+          <t>Day Plan:
+Morning: Explore the historical "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Immerse yourself in the cultural heritage at "jm` lfrdws," a highly-rated museum in Medenine.
+Midday: Indulge in authentic Tunisian cuisine at "Restaurant terrasse khairi," known for its traditional and international fare.
+Afternoon: Visit "TONTON Glace," a renowned sundae spot with a wide variety of flavors.
+Evening: Enjoy a delicious pasta dish at "Pizzeria Bella Roma," a popular local pizzeria with excellent ratings.
+Night: Relax and unwind with a sundae from "TONTON Glace" while taking in the city views at "Medenine Centre" bus stop.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lrwsy is a cafe located in Médénine, Tunisia. It's rated 5.0 out of 5 stars based on one review. The cafe's exact location is 8FP9+888.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Restaurant terrasse khairi is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is situated in a convenient location, just off the main road. It has a pleasant ambiance and the staff is friendly and attentive. The prices are reasonable and the food is delicious. Overall, Restaurant terrasse khairi is a great place to dine.
+33.3497059, 10.4863079
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8128,16 +11667,62 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a reliable taxi rank, check out mHT@ lnql lryfy at 8FWV+WV3. 
-This highly-rated spot is the perfect choice for those in need of a taxi service. 
-With a rating of 4.2, it's a must-visit spot.
-To get there, use these GPS coordinates: 33.3497059, 10.4863079.
-For more details, visit their website at https://djerba--hotel.blogspot.com/p/taxi-rank.html or call them at the provided phone number.</t>
+          <t>mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a highly-rated and reliable taxi rank with GPS coordinates 33.3497059, 10.4863079?</t>
+          <t>Day Plan:
+**Morning:** Start your day by exploring the "Musee des coutumes et traditions de la ville de Medenine," immersing yourself in the rich cultural heritage of the city.
+**Mid-Morning:** Head to Cafe Afrique for a relaxing ambiance and a cup of coffee to prepare for the rest of your day.
+**Midday:** Indulge in local cuisine at "Rachid &amp; Sophie," known for its delicious food and unique anecdotes.
+**Afternoon:** Enjoy a sweet treat at "TONTON Glace," savoring their famous sundaes and relishing the delightful flavors.
+**Evening:** Visit jm` lfrdws, a museum offering an immersive cultural experience, to delve into the historical and cultural insights of the region.
+**Night:** Experience scenic views at "Medenine Centre," embracing the beauty of the city while enjoying a peaceful evening stroll.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Afrique, a popular cafe in Medenine located at (33.3458652, 10.4912132), offers a relaxing ambiance with a 5-star rating. Open from 6:00 AM to 11:00 PM, it's a favorite spot for coffee lovers and locals alike, providing a cozy atmosphere for connecting and unwinding.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8231,14 +11816,68 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for transportation services, check out Central Louage Station located at 8FVQ+722 Central Louage Station. 
-This top-rated destination is perfect for transportation service lovers and offers a range of transportation services to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Central+Louage+Station/data=!4m7!3m6!1s0x1254d62daa16a0d7:0xffb98f4902662d21!8m2!3d33.3431253!4d10.487504!16s%2Fg%2F11hbntz8l3!19sChIJ16AWqi3WVBIRIS1mAkmPuf8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where in Medenine can you find a popular and highly-rated transportation services destination called Central Louage Station?</t>
+          <t>Day Plan:
+Morning:
+- Start the day with a traditional Tunisian breakfast at Rachid &amp; Sophie, a highly-rated family restaurant known for its warm ambiance and delicious local dishes.
+Mid-Morning:
+- Visit the Musée des coutumes et traditions de la ville de Medenine to delve into the rich history and cultural heritage of the city through captivating exhibits and collections.
+Midday:
+- Explore the local market, Souk of Medenine, and immerse yourself in the vibrant atmosphere. Discover unique handmade crafts, traditional textiles, and fresh produce while interacting with friendly locals.
+Afternoon:
+- Indulge in a delightful lunch at Pizzeria Bella Roma, renowned for its authentic Italian pizzas made with fresh ingredients and cooked to perfection.
+Evening:
+- Take a leisurely stroll through Parc El Massaoudia, a tranquil green space with lush greenery, blooming flowers, and shaded areas. Escape the hustle and bustle while enjoying the serene surroundings.
+Night:
+- Experience the lively atmosphere of TONTON Glace, a popular sundae restaurant. Treat yourself to a delicious and refreshing sundae while savoring the sweet indulgence.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Costa, located in Medenine (coordinates 33.3497059,10.4863079), offers a cozy ambiance and a 4.3 rating on Google. With 41 reviews, this cafe caters to coffee enthusiasts and is open from 6 AM to midnight every day.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8336,13 +11975,62 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a place to catch a bus, check out Medenine Centre located at Medenine Centre, Medenine. 
-This highly-rated public transit stop has a rating of 4.0, making it a great option for travelers. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Medenine+Centre/data=!4m7!3m6!1s0x1254d62bff96971b:0x6e8914c0499cbeb1!8m2!3d33.34603!4d10.490132!16s%2Fg%2F11jg82j5yt!19sChIJG5eW_yvWVBIRsb6cScAUiW4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated public transit stop in Medenine with GPS coordinates and a dedicated website?</t>
+          <t>Day Plan:
+Morning: Exploring the cultural heritage at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Trying local cuisine at KIFSET restaurant, known for its highly-rated dining experience.
+Midday: Visiting the "jm` lfrdws" museum to delve into the rich history and traditions of Medenine.
+Afternoon: Enjoying a relaxing break with a sundae at TONTON Glace, renowned for its delicious offerings.
+Evening: Exploring the scenic landscapes at one of Medenine's beautiful parks or beaches.
+Night: Experiencing the lively atmosphere at Rachid &amp; Sophie, a family restaurant praised by locals and visitors alike.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bruxelles is a 4.3-rated cafe located in Medenine, Tunisia at the coordinates (33.348982266694, 10.485188599175). It is open from 6:00 AM to 9:00 PM and specializes in cafe fare.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8436,12 +12124,62 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a transportation option, check out Gare Des Bus located at 8FWR+G2C. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Which highly-rated transportation destination in Medenine, renowned for its range of services, can be found at 8FWR+G2C?</t>
+          <t>Day Plan:
+Morning: Explore the "Musee des coutumes et traditions de la ville de Medenine" to delve into the rich heritage and traditions of Medenine.
+Mid-Morning: Try local cuisine at "Les Délices de Safia," renowned for its culinary delights and exceptional 5.0 rating.
+Midday: Visit the "jm` lfrdws" museum to immerse yourself in the cultural history of Medenine through captivating exhibits and collections.
+Afternoon: Enjoy a refreshing treat at "TONTON Glace," a highly-rated sundae restaurant offering a wide variety of flavors.
+Evening: Engage in outdoor activities like cycling or hiking at the scenic "Parc National de Sidi Toui."
+Night: Relax with a soothing massage at Maison d'hotes La Cuesta Medenine.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Monarc Coffee is a popular cafe in Medenine, Tunisia. Open from 6am to midnight, this cafe serves a variety of food and drink options that are sure to satisfy any customer. Monarc Coffee is located at 9G29+FMP, P1, with coordinates (33.3497059, 10.4863079), and offers a cozy, relaxed atmosphere with friendly service.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Les Délices de Safia is a restaurant located in Zarzis, Tunisia, offering a wide range of culinary delights. Situated at the coordinates (33.8686268, 10.7832941), this eatery is open 24 hours a day, making it a convenient choice for those seeking a late-night bite. With an impressive rating of 5.0, it has received positive reviews from satisfied customers, showcasing its commitment to quality and exceptional service. Whether you're looking for a quick meal or a memorable dining experience, Les Délices de Safia is an excellent choice.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8535,12 +12273,63 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a Station-service, check out Station du Transport Rural Medenine Nord located at 8FXP+VRJ Station du Transport Rural Medenine Nord, Medenine. This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3540965, 10.5384992. For more details, visit their website at https://www.google.com/maps/place/Station+du+Transport+Rural+Medenine+Nord/</t>
+          <t>The Station du Transport Rural Medenine Nord is a gas station located in Medenine, Tunisia. It is situated at the coordinates (33.3540965, 10.5384992).</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Station-service with GPS coordinates of 33.3540965, 10.5384992 in Medenine?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance at "Musee des coutumes et traditions de la ville de Medenine."
+Mid-Morning: Immerse yourself in the local heritage at "jm` lfrdws."
+Midday: Delight in authentic Tunisian flavors at "Restaurant fruit de mer."
+Afternoon: Take a refreshing break at "TONTON Glace" for delectable sundaes.
+Evening: Indulge in a delightful dining experience at "Rachid &amp; Sophie."
+Night: Embark on a memorable cultural tour of the "Central Louage Station."</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Castello is a cozy and inviting cafe located in the heart of Medenine, Tunisia. With its convenient location at coordinates (33.3497059, 10.4863079), Castello is easily accessible to both locals and visitors alike.
+Open from 6:00 AM to 8:00 PM every day of the week, Castello offers a wide range of beverages and snacks to satisfy any craving. Whether you're looking for a morning coffee or an afternoon pick-me-up, Castello has something for you.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.
+Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8638,12 +12427,62 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something related to Service de transport, check out mHT@ llwj mdnyn located at 8FWR+QG3 mHT@ llwj mdnyn. This top-rated destination is perfect for Service de transport lovers. With a rating of 3.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>mHT@ llwj mdnyn is a transportation service located in Medenine, Tunisia. It is situated at coordinates (33.3497059, 10.4863079) and offers 24/7 availability. Despite having only one review, it maintains a 3.0 rating and falls under the main category of transportation service.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated destination related to Service de transport in Medenine that is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore "Musee des coutumes et traditions de la ville de Medenine" for a deep dive into the city's cultural heritage.
+Mid-Morning: Visit "jm` lfrdws" for an immersive cultural experience and gain historical and cultural insights.
+Midday: Try local cuisine at "Rachid &amp; Sophie" while enjoying their unique storytelling experience.
+Afternoon: Relax with a delicious crepe at "The Creperie Nutella," known for its high-quality ingredients and friendly service.
+Evening: Enjoy scenic views at the central bus station, "Medenine Centre."
+Night: Participate in [Event/Activity] at [Venue] (specific event information not provided in the context).</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonkif is a cafe located in Medenine, Tunisia. It is open from 5:00 AM to 10:00 PM and offers a variety of food and drink options. The cafe is known for its friendly staff and comfortable atmosphere. It is also a popular spot for locals and tourists alike.
+Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.
+Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.
+Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.
+Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.
+Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.
+jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.
+Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.
+Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.
+The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.
+Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).
+TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.
+82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.
+Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.
+Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.
+mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.
+The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
